--- a/src/main/resources/templates/transaction data.xlsx
+++ b/src/main/resources/templates/transaction data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Moneymate\moneymate_BE\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D4834B-79AD-487B-B54A-42421BA98BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99993D7-2128-4BE8-9382-ECE90755C897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="2" xr2:uid="{0F46D228-5C9C-4030-B79E-A0102E5536B4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="437">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23186,6 +23186,10 @@
   </si>
   <si>
     <t>카테고리,수입,근로소득, 환불, 이자수입, 배당수입, 용돈, 세금-환급, 복권/당첨금, 지출, 공과금, 세금, 대출상환, 교통비, 쇼핑, 생활, 통신비, 음식점, 배달음식, 편의점, 주거, 의료, 교육, 학비, 문화생활, 구독서비스, 숙박, 반려동물, 자동차, 카페, 미용/뷰티, 생활/쇼핑, 보험, 기부, 간편결제, 마트, 서적, 은행, 이체, 입금, 출금, 투자, 예적금, 사업, 카드대금, 환전, 해외송금, 주식거래</t>
+  </si>
+  <si>
+    <t>홍상우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -30716,9 +30720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C14AAD-15E4-40C2-8EA2-FB2FDF002307}">
   <dimension ref="A2:S1166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L379" sqref="L379"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F558" sqref="F558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31108,7 +31112,7 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" si="2"/>
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="87"/>
@@ -31387,11 +31391,11 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" si="5"/>
-        <v>2273800</v>
+        <v>2309400</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="6"/>
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M23" s="90" t="s">
         <v>215</v>
@@ -31471,11 +31475,11 @@
       </c>
       <c r="K25" s="3">
         <f t="shared" si="5"/>
-        <v>1663080</v>
+        <v>1667980</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="6"/>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="90" t="s">
         <v>211</v>
@@ -31514,11 +31518,11 @@
       </c>
       <c r="K26" s="3">
         <f t="shared" si="5"/>
-        <v>156800</v>
+        <v>159100</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M26" s="90" t="s">
         <v>50</v>
@@ -31814,11 +31818,11 @@
       </c>
       <c r="K33" s="3">
         <f t="shared" si="5"/>
-        <v>1146405</v>
+        <v>1227105</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="6"/>
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M33" s="90" t="s">
         <v>17</v>
@@ -32298,11 +32302,11 @@
       </c>
       <c r="K47" s="3">
         <f t="shared" si="7"/>
-        <v>659760</v>
+        <v>759760</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="8"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M47" s="34" t="s">
         <v>25</v>
@@ -32343,11 +32347,11 @@
       </c>
       <c r="K48" s="3">
         <f t="shared" si="7"/>
-        <v>8990959</v>
+        <v>9190959</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="8"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M48" s="34" t="s">
         <v>47</v>
@@ -32660,7 +32664,7 @@
       </c>
       <c r="L55" s="1">
         <f t="shared" si="8"/>
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="M55" s="34"/>
       <c r="N55" s="87"/>
@@ -32920,7 +32924,7 @@
       </c>
       <c r="L61" s="1">
         <f t="shared" si="8"/>
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="M61" s="34"/>
       <c r="N61" s="52"/>
@@ -32959,7 +32963,7 @@
       </c>
       <c r="L62" s="1">
         <f t="shared" si="8"/>
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="M62" s="34"/>
       <c r="N62" s="52"/>
@@ -32998,7 +33002,7 @@
       </c>
       <c r="L63" s="1">
         <f t="shared" si="8"/>
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="M63" s="34"/>
       <c r="N63" s="52"/>
@@ -33035,7 +33039,7 @@
       </c>
       <c r="L64" s="1">
         <f t="shared" si="8"/>
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="1"/>
@@ -46818,14 +46822,22 @@
       <c r="A545" s="1">
         <v>537</v>
       </c>
-      <c r="C545" s="114"/>
-      <c r="D545" s="54"/>
-      <c r="E545" s="54"/>
+      <c r="C545" s="114">
+        <v>45683.543275462966</v>
+      </c>
+      <c r="D545" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E545" s="54" t="s">
+        <v>302</v>
+      </c>
       <c r="F545" s="55"/>
-      <c r="G545" s="56"/>
+      <c r="G545" s="56">
+        <v>2000</v>
+      </c>
       <c r="H545" s="30">
         <f t="shared" si="17"/>
-        <v>777725</v>
+        <v>775725</v>
       </c>
       <c r="J545" s="62"/>
       <c r="K545" s="3"/>
@@ -46835,14 +46847,22 @@
       <c r="A546" s="1">
         <v>538</v>
       </c>
-      <c r="C546" s="114"/>
-      <c r="D546" s="54"/>
-      <c r="E546" s="54"/>
+      <c r="C546" s="114">
+        <v>45683.54582175926</v>
+      </c>
+      <c r="D546" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E546" s="54" t="s">
+        <v>302</v>
+      </c>
       <c r="F546" s="55"/>
-      <c r="G546" s="56"/>
+      <c r="G546" s="56">
+        <v>4000</v>
+      </c>
       <c r="H546" s="30">
         <f t="shared" si="17"/>
-        <v>777725</v>
+        <v>771725</v>
       </c>
       <c r="J546" s="62"/>
       <c r="K546" s="3"/>
@@ -46852,14 +46872,22 @@
       <c r="A547" s="1">
         <v>539</v>
       </c>
-      <c r="C547" s="114"/>
-      <c r="D547" s="54"/>
-      <c r="E547" s="54"/>
+      <c r="C547" s="114">
+        <v>45684.861678240741</v>
+      </c>
+      <c r="D547" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E547" s="54" t="s">
+        <v>244</v>
+      </c>
       <c r="F547" s="55"/>
-      <c r="G547" s="56"/>
+      <c r="G547" s="56">
+        <v>2300</v>
+      </c>
       <c r="H547" s="30">
         <f t="shared" si="17"/>
-        <v>777725</v>
+        <v>769425</v>
       </c>
       <c r="J547" s="62"/>
       <c r="K547" s="3"/>
@@ -46869,14 +46897,22 @@
       <c r="A548" s="1">
         <v>540</v>
       </c>
-      <c r="C548" s="114"/>
-      <c r="D548" s="54"/>
-      <c r="E548" s="54"/>
+      <c r="C548" s="114">
+        <v>45685.014270833337</v>
+      </c>
+      <c r="D548" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E548" s="54" t="s">
+        <v>248</v>
+      </c>
       <c r="F548" s="55"/>
-      <c r="G548" s="56"/>
+      <c r="G548" s="56">
+        <v>13700</v>
+      </c>
       <c r="H548" s="30">
         <f t="shared" si="17"/>
-        <v>777725</v>
+        <v>755725</v>
       </c>
       <c r="J548" s="62"/>
       <c r="K548" s="3"/>
@@ -46886,14 +46922,22 @@
       <c r="A549" s="1">
         <v>541</v>
       </c>
-      <c r="C549" s="114"/>
-      <c r="D549" s="54"/>
-      <c r="E549" s="54"/>
+      <c r="C549" s="114">
+        <v>45685.025300925925</v>
+      </c>
+      <c r="D549" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E549" s="54" t="s">
+        <v>82</v>
+      </c>
       <c r="F549" s="55"/>
-      <c r="G549" s="56"/>
+      <c r="G549" s="56">
+        <v>4900</v>
+      </c>
       <c r="H549" s="30">
         <f t="shared" si="17"/>
-        <v>777725</v>
+        <v>750825</v>
       </c>
       <c r="J549" s="62"/>
       <c r="K549" s="3"/>
@@ -46918,7 +46962,7 @@
       </c>
       <c r="H550" s="30">
         <f t="shared" si="17"/>
-        <v>767725</v>
+        <v>740825</v>
       </c>
       <c r="J550" s="62"/>
       <c r="K550" s="3"/>
@@ -46943,7 +46987,7 @@
       </c>
       <c r="H551" s="30">
         <f t="shared" si="17"/>
-        <v>763225</v>
+        <v>736325</v>
       </c>
       <c r="J551" s="62"/>
       <c r="K551" s="3"/>
@@ -46968,7 +47012,7 @@
       </c>
       <c r="H552" s="30">
         <f t="shared" si="17"/>
-        <v>755335</v>
+        <v>728435</v>
       </c>
       <c r="J552" s="62"/>
       <c r="K552" s="3"/>
@@ -46978,14 +47022,22 @@
       <c r="A553" s="1">
         <v>545</v>
       </c>
-      <c r="C553" s="114"/>
-      <c r="D553" s="54"/>
-      <c r="E553" s="54"/>
-      <c r="F553" s="55"/>
+      <c r="C553" s="114">
+        <v>45686.422303240739</v>
+      </c>
+      <c r="D553" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E553" s="54" t="s">
+        <v>436</v>
+      </c>
+      <c r="F553" s="55">
+        <v>200000</v>
+      </c>
       <c r="G553" s="56"/>
       <c r="H553" s="30">
         <f t="shared" si="17"/>
-        <v>755335</v>
+        <v>928435</v>
       </c>
       <c r="J553" s="62"/>
       <c r="K553" s="3"/>
@@ -46995,14 +47047,22 @@
       <c r="A554" s="1">
         <v>546</v>
       </c>
-      <c r="C554" s="114"/>
-      <c r="D554" s="54"/>
-      <c r="E554" s="54"/>
+      <c r="C554" s="114">
+        <v>45686.43414351852</v>
+      </c>
+      <c r="D554" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E554" s="54" t="s">
+        <v>301</v>
+      </c>
       <c r="F554" s="55"/>
-      <c r="G554" s="56"/>
+      <c r="G554" s="56">
+        <v>100000</v>
+      </c>
       <c r="H554" s="30">
         <f t="shared" si="17"/>
-        <v>755335</v>
+        <v>828435</v>
       </c>
       <c r="J554" s="62"/>
       <c r="K554" s="3"/>
@@ -47012,14 +47072,22 @@
       <c r="A555" s="1">
         <v>547</v>
       </c>
-      <c r="C555" s="114"/>
-      <c r="D555" s="54"/>
-      <c r="E555" s="54"/>
+      <c r="C555" s="114">
+        <v>45686.980046296296</v>
+      </c>
+      <c r="D555" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E555" s="54" t="s">
+        <v>295</v>
+      </c>
       <c r="F555" s="55"/>
-      <c r="G555" s="56"/>
+      <c r="G555" s="56">
+        <v>24700</v>
+      </c>
       <c r="H555" s="30">
         <f t="shared" si="17"/>
-        <v>755335</v>
+        <v>803735</v>
       </c>
       <c r="J555" s="62"/>
       <c r="K555" s="3"/>
@@ -47029,14 +47097,22 @@
       <c r="A556" s="1">
         <v>548</v>
       </c>
-      <c r="C556" s="114"/>
-      <c r="D556" s="54"/>
-      <c r="E556" s="54"/>
+      <c r="C556" s="114">
+        <v>45688.702256944445</v>
+      </c>
+      <c r="D556" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E556" s="54" t="s">
+        <v>248</v>
+      </c>
       <c r="F556" s="55"/>
-      <c r="G556" s="56"/>
+      <c r="G556" s="56">
+        <v>21900</v>
+      </c>
       <c r="H556" s="30">
         <f t="shared" si="17"/>
-        <v>755335</v>
+        <v>781835</v>
       </c>
       <c r="J556" s="62"/>
       <c r="K556" s="3"/>
@@ -47046,14 +47122,22 @@
       <c r="A557" s="1">
         <v>549</v>
       </c>
-      <c r="C557" s="114"/>
-      <c r="D557" s="54"/>
-      <c r="E557" s="54"/>
+      <c r="C557" s="114">
+        <v>45692.231574074074</v>
+      </c>
+      <c r="D557" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E557" s="54" t="s">
+        <v>40</v>
+      </c>
       <c r="F557" s="55"/>
-      <c r="G557" s="56"/>
+      <c r="G557" s="56">
+        <v>50000</v>
+      </c>
       <c r="H557" s="30">
         <f t="shared" si="17"/>
-        <v>755335</v>
+        <v>731835</v>
       </c>
       <c r="J557" s="62"/>
       <c r="K557" s="3"/>
@@ -47070,7 +47154,7 @@
         <v>16</v>
       </c>
       <c r="E558" s="54" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="F558" s="55"/>
       <c r="G558" s="56">
@@ -47078,7 +47162,7 @@
       </c>
       <c r="H558" s="30">
         <f t="shared" si="17"/>
-        <v>735335</v>
+        <v>711835</v>
       </c>
       <c r="J558" s="62"/>
       <c r="K558" s="3"/>
@@ -47095,7 +47179,7 @@
       <c r="G559" s="56"/>
       <c r="H559" s="30">
         <f t="shared" si="17"/>
-        <v>735335</v>
+        <v>711835</v>
       </c>
       <c r="J559" s="62"/>
       <c r="K559" s="3"/>
@@ -47112,7 +47196,7 @@
       <c r="G560" s="56"/>
       <c r="H560" s="30">
         <f t="shared" si="17"/>
-        <v>735335</v>
+        <v>711835</v>
       </c>
       <c r="J560" s="62"/>
       <c r="K560" s="3"/>
@@ -47129,7 +47213,7 @@
       <c r="G561" s="56"/>
       <c r="H561" s="30">
         <f t="shared" si="17"/>
-        <v>735335</v>
+        <v>711835</v>
       </c>
       <c r="J561" s="62"/>
       <c r="K561" s="3"/>
@@ -47146,7 +47230,7 @@
       <c r="G562" s="56"/>
       <c r="H562" s="30">
         <f t="shared" si="17"/>
-        <v>735335</v>
+        <v>711835</v>
       </c>
       <c r="J562" s="62"/>
       <c r="K562" s="3"/>
@@ -47163,7 +47247,7 @@
       <c r="G563" s="56"/>
       <c r="H563" s="30">
         <f t="shared" si="17"/>
-        <v>735335</v>
+        <v>711835</v>
       </c>
       <c r="J563" s="62"/>
       <c r="K563" s="3"/>
@@ -47188,7 +47272,7 @@
       </c>
       <c r="H564" s="30">
         <f t="shared" si="17"/>
-        <v>727445</v>
+        <v>703945</v>
       </c>
       <c r="J564" s="62"/>
       <c r="K564" s="3"/>
@@ -47213,7 +47297,7 @@
       </c>
       <c r="H565" s="30">
         <f t="shared" si="17"/>
-        <v>713445</v>
+        <v>689945</v>
       </c>
       <c r="J565" s="62"/>
       <c r="K565" s="3"/>
@@ -47238,7 +47322,7 @@
       </c>
       <c r="H566" s="30">
         <f t="shared" si="17"/>
-        <v>696400</v>
+        <v>672900</v>
       </c>
       <c r="J566" s="62" t="str">
         <f t="shared" si="14"/>
@@ -47266,7 +47350,7 @@
       </c>
       <c r="H567" s="30">
         <f t="shared" si="17"/>
-        <v>678400</v>
+        <v>654900</v>
       </c>
       <c r="J567" s="62" t="str">
         <f t="shared" si="14"/>
@@ -47294,7 +47378,7 @@
       </c>
       <c r="H568" s="30">
         <f t="shared" si="17"/>
-        <v>668400</v>
+        <v>644900</v>
       </c>
       <c r="J568" s="62"/>
       <c r="K568" s="3"/>
@@ -47315,7 +47399,7 @@
       <c r="G569" s="56"/>
       <c r="H569" s="30">
         <f t="shared" si="17"/>
-        <v>668400</v>
+        <v>644900</v>
       </c>
       <c r="J569" s="62"/>
       <c r="K569" s="3"/>
@@ -47332,7 +47416,7 @@
       <c r="G570" s="56"/>
       <c r="H570" s="30">
         <f t="shared" si="17"/>
-        <v>668400</v>
+        <v>644900</v>
       </c>
       <c r="J570" s="62"/>
       <c r="K570" s="3"/>
@@ -47349,7 +47433,7 @@
       <c r="G571" s="56"/>
       <c r="H571" s="30">
         <f t="shared" si="17"/>
-        <v>668400</v>
+        <v>644900</v>
       </c>
       <c r="J571" s="62"/>
       <c r="K571" s="3"/>
@@ -47374,7 +47458,7 @@
       </c>
       <c r="H572" s="30">
         <f t="shared" si="17"/>
-        <v>654000</v>
+        <v>630500</v>
       </c>
       <c r="J572" s="62"/>
       <c r="K572" s="3"/>
@@ -47391,7 +47475,7 @@
       <c r="G573" s="56"/>
       <c r="H573" s="30">
         <f t="shared" si="17"/>
-        <v>654000</v>
+        <v>630500</v>
       </c>
       <c r="J573" s="62"/>
       <c r="K573" s="3"/>
@@ -47408,7 +47492,7 @@
       <c r="G574" s="56"/>
       <c r="H574" s="30">
         <f t="shared" si="17"/>
-        <v>654000</v>
+        <v>630500</v>
       </c>
       <c r="J574" s="62"/>
       <c r="K574" s="3"/>
@@ -47425,7 +47509,7 @@
       <c r="G575" s="56"/>
       <c r="H575" s="30">
         <f t="shared" si="17"/>
-        <v>654000</v>
+        <v>630500</v>
       </c>
       <c r="J575" s="62"/>
       <c r="K575" s="3"/>
@@ -47442,7 +47526,7 @@
       <c r="G576" s="56"/>
       <c r="H576" s="30">
         <f t="shared" si="17"/>
-        <v>654000</v>
+        <v>630500</v>
       </c>
       <c r="J576" s="62"/>
       <c r="K576" s="3"/>
@@ -47467,7 +47551,7 @@
       </c>
       <c r="H577" s="30">
         <f t="shared" si="17"/>
-        <v>-46000</v>
+        <v>-69500</v>
       </c>
       <c r="J577" s="62"/>
       <c r="K577" s="3"/>
@@ -47492,7 +47576,7 @@
       </c>
       <c r="H578" s="30">
         <f t="shared" si="17"/>
-        <v>-47990</v>
+        <v>-71490</v>
       </c>
       <c r="J578" s="62" t="str">
         <f t="shared" si="14"/>
@@ -47520,7 +47604,7 @@
       <c r="G579" s="43"/>
       <c r="H579" s="30">
         <f t="shared" si="17"/>
-        <v>462010</v>
+        <v>438510</v>
       </c>
       <c r="J579" s="62"/>
       <c r="K579" s="3"/>
@@ -47545,7 +47629,7 @@
       <c r="G580" s="56"/>
       <c r="H580" s="30">
         <f t="shared" si="17"/>
-        <v>492010</v>
+        <v>468510</v>
       </c>
       <c r="J580" s="62" t="str">
         <f t="shared" si="14"/>
@@ -47573,7 +47657,7 @@
       </c>
       <c r="H581" s="30">
         <f t="shared" si="17"/>
-        <v>484010</v>
+        <v>460510</v>
       </c>
       <c r="J581" s="62" t="str">
         <f t="shared" si="14"/>
@@ -47601,7 +47685,7 @@
       </c>
       <c r="H582" s="30">
         <f t="shared" si="17"/>
-        <v>480010</v>
+        <v>456510</v>
       </c>
       <c r="J582" s="62" t="str">
         <f t="shared" si="14"/>
@@ -47629,7 +47713,7 @@
       </c>
       <c r="H583" s="30">
         <f t="shared" si="17"/>
-        <v>471710</v>
+        <v>448210</v>
       </c>
       <c r="J583" s="62" t="str">
         <f t="shared" si="14"/>
@@ -47657,7 +47741,7 @@
       </c>
       <c r="H584" s="30">
         <f t="shared" si="17"/>
-        <v>459710</v>
+        <v>436210</v>
       </c>
       <c r="J584" s="62" t="str">
         <f t="shared" si="14"/>
@@ -47685,7 +47769,7 @@
       </c>
       <c r="H585" s="30">
         <f t="shared" si="17"/>
-        <v>430010</v>
+        <v>406510</v>
       </c>
       <c r="J585" s="62" t="str">
         <f t="shared" si="14"/>
@@ -47713,7 +47797,7 @@
       </c>
       <c r="H586" s="30">
         <f t="shared" ref="H586:H649" si="18">H585+F586-G586</f>
-        <v>418110</v>
+        <v>394610</v>
       </c>
       <c r="J586" s="62"/>
       <c r="K586" s="3"/>
@@ -47738,7 +47822,7 @@
       <c r="G587" s="56"/>
       <c r="H587" s="30">
         <f t="shared" si="18"/>
-        <v>468110</v>
+        <v>444610</v>
       </c>
       <c r="J587" s="62"/>
       <c r="K587" s="3"/>
@@ -47763,7 +47847,7 @@
       <c r="G588" s="56"/>
       <c r="H588" s="30">
         <f t="shared" si="18"/>
-        <v>968110</v>
+        <v>944610</v>
       </c>
       <c r="J588" s="62"/>
       <c r="K588" s="3"/>
@@ -47788,7 +47872,7 @@
       </c>
       <c r="H589" s="30">
         <f t="shared" si="18"/>
-        <v>960220</v>
+        <v>936720</v>
       </c>
       <c r="J589" s="62"/>
       <c r="K589" s="3"/>
@@ -47813,7 +47897,7 @@
       </c>
       <c r="H590" s="30">
         <f t="shared" si="18"/>
-        <v>944320</v>
+        <v>920820</v>
       </c>
       <c r="J590" s="62"/>
       <c r="K590" s="3"/>
@@ -47838,7 +47922,7 @@
       </c>
       <c r="H591" s="30">
         <f t="shared" si="18"/>
-        <v>936420</v>
+        <v>912920</v>
       </c>
       <c r="J591" s="62"/>
       <c r="K591" s="3"/>
@@ -47863,7 +47947,7 @@
       </c>
       <c r="H592" s="30">
         <f t="shared" si="18"/>
-        <v>929920</v>
+        <v>906420</v>
       </c>
       <c r="J592" s="62"/>
       <c r="K592" s="3"/>
@@ -47888,7 +47972,7 @@
       </c>
       <c r="H593" s="30">
         <f t="shared" si="18"/>
-        <v>915520</v>
+        <v>892020</v>
       </c>
       <c r="J593" s="62"/>
       <c r="K593" s="3"/>
@@ -47913,7 +47997,7 @@
       <c r="G594" s="56"/>
       <c r="H594" s="30">
         <f t="shared" si="18"/>
-        <v>1035520</v>
+        <v>1012020</v>
       </c>
       <c r="J594" s="62"/>
       <c r="K594" s="3"/>
@@ -47938,7 +48022,7 @@
       </c>
       <c r="H595" s="30">
         <f t="shared" si="18"/>
-        <v>1015520</v>
+        <v>992020</v>
       </c>
       <c r="J595" s="62"/>
       <c r="K595" s="3"/>
@@ -47963,7 +48047,7 @@
       </c>
       <c r="H596" s="30">
         <f t="shared" si="18"/>
-        <v>1008520</v>
+        <v>985020</v>
       </c>
       <c r="J596" s="62"/>
       <c r="K596" s="3"/>
@@ -47988,7 +48072,7 @@
       </c>
       <c r="H597" s="30">
         <f t="shared" si="18"/>
-        <v>996520</v>
+        <v>973020</v>
       </c>
       <c r="J597" s="62"/>
       <c r="K597" s="3"/>
@@ -48013,7 +48097,7 @@
       </c>
       <c r="H598" s="30">
         <f t="shared" si="18"/>
-        <v>990620</v>
+        <v>967120</v>
       </c>
       <c r="J598" s="62"/>
       <c r="K598" s="3"/>
@@ -48038,7 +48122,7 @@
       </c>
       <c r="H599" s="30">
         <f t="shared" si="18"/>
-        <v>982730</v>
+        <v>959230</v>
       </c>
       <c r="J599" s="62"/>
       <c r="K599" s="3"/>
@@ -48063,7 +48147,7 @@
       </c>
       <c r="H600" s="30">
         <f t="shared" si="18"/>
-        <v>977030</v>
+        <v>953530</v>
       </c>
       <c r="J600" s="62"/>
       <c r="K600" s="3"/>
@@ -48088,7 +48172,7 @@
       </c>
       <c r="H601" s="30">
         <f t="shared" si="18"/>
-        <v>970030</v>
+        <v>946530</v>
       </c>
       <c r="J601" s="62"/>
       <c r="K601" s="3"/>
@@ -48113,7 +48197,7 @@
       </c>
       <c r="H602" s="30">
         <f t="shared" si="18"/>
-        <v>965030</v>
+        <v>941530</v>
       </c>
       <c r="J602" s="62"/>
       <c r="K602" s="3"/>
@@ -48138,7 +48222,7 @@
       <c r="G603" s="56"/>
       <c r="H603" s="30">
         <f t="shared" si="18"/>
-        <v>985030</v>
+        <v>961530</v>
       </c>
       <c r="J603" s="62"/>
       <c r="K603" s="3"/>
@@ -48163,7 +48247,7 @@
       </c>
       <c r="H604" s="30">
         <f t="shared" si="18"/>
-        <v>976430</v>
+        <v>952930</v>
       </c>
       <c r="J604" s="62"/>
       <c r="K604" s="3"/>
@@ -48188,7 +48272,7 @@
       </c>
       <c r="H605" s="30">
         <f t="shared" si="18"/>
-        <v>970430</v>
+        <v>946930</v>
       </c>
       <c r="J605" s="62"/>
       <c r="K605" s="3"/>
@@ -48213,7 +48297,7 @@
       </c>
       <c r="H606" s="30">
         <f t="shared" si="18"/>
-        <v>968030</v>
+        <v>944530</v>
       </c>
       <c r="J606" s="62"/>
       <c r="K606" s="3"/>
@@ -48238,7 +48322,7 @@
       </c>
       <c r="H607" s="30">
         <f t="shared" si="18"/>
-        <v>961530</v>
+        <v>938030</v>
       </c>
       <c r="J607" s="62"/>
       <c r="K607" s="3"/>
@@ -48263,7 +48347,7 @@
       </c>
       <c r="H608" s="30">
         <f t="shared" si="18"/>
-        <v>945030</v>
+        <v>921530</v>
       </c>
       <c r="J608" s="62"/>
       <c r="K608" s="3"/>
@@ -48288,7 +48372,7 @@
       </c>
       <c r="H609" s="30">
         <f t="shared" si="18"/>
-        <v>245030</v>
+        <v>221530</v>
       </c>
       <c r="J609" s="62" t="str">
         <f t="shared" si="14"/>
@@ -48316,7 +48400,7 @@
       </c>
       <c r="H610" s="30">
         <f t="shared" si="18"/>
-        <v>243040</v>
+        <v>219540</v>
       </c>
       <c r="J610" s="62"/>
       <c r="K610" s="3"/>
@@ -48341,7 +48425,7 @@
       </c>
       <c r="H611" s="30">
         <f t="shared" si="18"/>
-        <v>228740</v>
+        <v>205240</v>
       </c>
       <c r="J611" s="62" t="str">
         <f t="shared" si="14"/>
@@ -48369,7 +48453,7 @@
       </c>
       <c r="H612" s="30">
         <f t="shared" si="18"/>
-        <v>204540</v>
+        <v>181040</v>
       </c>
       <c r="J612" s="62" t="str">
         <f t="shared" si="14"/>
@@ -48397,7 +48481,7 @@
       </c>
       <c r="H613" s="30">
         <f t="shared" si="18"/>
-        <v>189540</v>
+        <v>166040</v>
       </c>
       <c r="J613" s="62" t="str">
         <f t="shared" si="14"/>
@@ -48425,7 +48509,7 @@
       </c>
       <c r="H614" s="30">
         <f t="shared" si="18"/>
-        <v>182340</v>
+        <v>158840</v>
       </c>
       <c r="J614" s="62" t="str">
         <f t="shared" si="14"/>
@@ -48453,7 +48537,7 @@
       </c>
       <c r="H615" s="30">
         <f t="shared" si="18"/>
-        <v>174450</v>
+        <v>150950</v>
       </c>
       <c r="J615" s="62" t="str">
         <f t="shared" si="14"/>
@@ -48481,7 +48565,7 @@
       </c>
       <c r="H616" s="30">
         <f t="shared" si="18"/>
-        <v>162540</v>
+        <v>139040</v>
       </c>
       <c r="J616" s="62" t="str">
         <f t="shared" si="14"/>
@@ -48509,7 +48593,7 @@
       </c>
       <c r="H617" s="30">
         <f t="shared" si="18"/>
-        <v>160040</v>
+        <v>136540</v>
       </c>
       <c r="J617" s="62" t="str">
         <f t="shared" si="14"/>
@@ -48537,7 +48621,7 @@
       </c>
       <c r="H618" s="30">
         <f t="shared" si="18"/>
-        <v>155140</v>
+        <v>131640</v>
       </c>
       <c r="J618" s="62"/>
       <c r="K618" s="3"/>
@@ -48562,7 +48646,7 @@
       </c>
       <c r="H619" s="30">
         <f t="shared" si="18"/>
-        <v>137940</v>
+        <v>114440</v>
       </c>
       <c r="J619" s="62"/>
       <c r="K619" s="3"/>
@@ -48587,7 +48671,7 @@
       </c>
       <c r="H620" s="30">
         <f t="shared" si="18"/>
-        <v>136240</v>
+        <v>112740</v>
       </c>
       <c r="J620" s="62"/>
       <c r="K620" s="3"/>
@@ -48612,7 +48696,7 @@
       </c>
       <c r="H621" s="30">
         <f t="shared" si="18"/>
-        <v>134496</v>
+        <v>110996</v>
       </c>
       <c r="J621" s="62"/>
       <c r="K621" s="3"/>
@@ -48637,7 +48721,7 @@
       </c>
       <c r="H622" s="30">
         <f t="shared" si="18"/>
-        <v>130796</v>
+        <v>107296</v>
       </c>
       <c r="J622" s="62"/>
       <c r="K622" s="3"/>
@@ -48662,7 +48746,7 @@
       </c>
       <c r="H623" s="30">
         <f t="shared" si="18"/>
-        <v>120996</v>
+        <v>97496</v>
       </c>
       <c r="J623" s="62" t="str">
         <f t="shared" si="14"/>
@@ -48690,7 +48774,7 @@
       </c>
       <c r="H624" s="30">
         <f t="shared" si="18"/>
-        <v>115396</v>
+        <v>91896</v>
       </c>
       <c r="J624" s="62"/>
       <c r="K624" s="3"/>
@@ -48715,7 +48799,7 @@
       </c>
       <c r="H625" s="30">
         <f t="shared" si="18"/>
-        <v>109896</v>
+        <v>86396</v>
       </c>
       <c r="J625" s="62"/>
       <c r="K625" s="3"/>
@@ -48740,7 +48824,7 @@
       </c>
       <c r="H626" s="30">
         <f t="shared" si="18"/>
-        <v>104396</v>
+        <v>80896</v>
       </c>
       <c r="J626" s="62"/>
       <c r="K626" s="3"/>
@@ -48765,7 +48849,7 @@
       <c r="G627" s="56"/>
       <c r="H627" s="30">
         <f t="shared" si="18"/>
-        <v>704396</v>
+        <v>680896</v>
       </c>
       <c r="J627" s="62"/>
       <c r="K627" s="3"/>
@@ -48790,7 +48874,7 @@
       <c r="G628" s="56"/>
       <c r="H628" s="30">
         <f t="shared" si="18"/>
-        <v>704641</v>
+        <v>681141</v>
       </c>
       <c r="J628" s="62"/>
       <c r="K628" s="3"/>
@@ -48815,7 +48899,7 @@
       </c>
       <c r="H629" s="30">
         <f t="shared" si="18"/>
-        <v>697441</v>
+        <v>673941</v>
       </c>
       <c r="J629" s="62"/>
       <c r="K629" s="3"/>
@@ -48840,7 +48924,7 @@
       </c>
       <c r="H630" s="30">
         <f t="shared" si="18"/>
-        <v>694941</v>
+        <v>671441</v>
       </c>
       <c r="J630" s="62"/>
       <c r="K630" s="3"/>
@@ -48865,7 +48949,7 @@
       </c>
       <c r="H631" s="30">
         <f t="shared" si="18"/>
-        <v>690241</v>
+        <v>666741</v>
       </c>
       <c r="J631" s="62"/>
       <c r="K631" s="3"/>
@@ -48890,7 +48974,7 @@
       </c>
       <c r="H632" s="30">
         <f t="shared" si="18"/>
-        <v>682351</v>
+        <v>658851</v>
       </c>
       <c r="J632" s="62"/>
       <c r="K632" s="3"/>
@@ -48915,7 +48999,7 @@
       </c>
       <c r="H633" s="30">
         <f t="shared" si="18"/>
-        <v>674851</v>
+        <v>651351</v>
       </c>
       <c r="J633" s="62"/>
       <c r="K633" s="3"/>
@@ -48940,7 +49024,7 @@
       </c>
       <c r="H634" s="30">
         <f t="shared" si="18"/>
-        <v>663651</v>
+        <v>640151</v>
       </c>
       <c r="J634" s="62"/>
       <c r="K634" s="3"/>
@@ -48965,7 +49049,7 @@
       </c>
       <c r="H635" s="30">
         <f t="shared" si="18"/>
-        <v>655351</v>
+        <v>631851</v>
       </c>
       <c r="J635" s="62"/>
       <c r="K635" s="3"/>
@@ -48990,7 +49074,7 @@
       </c>
       <c r="H636" s="30">
         <f t="shared" si="18"/>
-        <v>654351</v>
+        <v>630851</v>
       </c>
       <c r="J636" s="62"/>
       <c r="K636" s="3"/>
@@ -49015,7 +49099,7 @@
       </c>
       <c r="H637" s="30">
         <f t="shared" si="18"/>
-        <v>653351</v>
+        <v>629851</v>
       </c>
       <c r="J637" s="62"/>
       <c r="K637" s="3"/>
@@ -49040,7 +49124,7 @@
       <c r="G638" s="56"/>
       <c r="H638" s="30">
         <f t="shared" si="18"/>
-        <v>803351</v>
+        <v>779851</v>
       </c>
       <c r="J638" s="62"/>
       <c r="K638" s="3"/>
@@ -49065,7 +49149,7 @@
       </c>
       <c r="H639" s="30">
         <f t="shared" si="18"/>
-        <v>791451</v>
+        <v>767951</v>
       </c>
       <c r="J639" s="62"/>
       <c r="K639" s="3"/>
@@ -49090,7 +49174,7 @@
       </c>
       <c r="H640" s="30">
         <f t="shared" si="18"/>
-        <v>788051</v>
+        <v>764551</v>
       </c>
       <c r="J640" s="62"/>
       <c r="K640" s="3"/>
@@ -49115,7 +49199,7 @@
       </c>
       <c r="H641" s="30">
         <f t="shared" si="18"/>
-        <v>88051</v>
+        <v>64551</v>
       </c>
       <c r="J641" s="62" t="str">
         <f t="shared" si="14"/>
@@ -49143,7 +49227,7 @@
       </c>
       <c r="H642" s="30">
         <f t="shared" si="18"/>
-        <v>86061</v>
+        <v>62561</v>
       </c>
       <c r="J642" s="62"/>
       <c r="K642" s="3"/>
@@ -49171,7 +49255,7 @@
       </c>
       <c r="H643" s="30">
         <f t="shared" si="18"/>
-        <v>79561</v>
+        <v>56061</v>
       </c>
       <c r="J643" s="62" t="str">
         <f t="shared" si="14"/>
@@ -49199,7 +49283,7 @@
       </c>
       <c r="H644" s="30">
         <f t="shared" si="18"/>
-        <v>63861</v>
+        <v>40361</v>
       </c>
       <c r="J644" s="62" t="str">
         <f t="shared" si="14"/>
@@ -49227,7 +49311,7 @@
       </c>
       <c r="H645" s="30">
         <f t="shared" si="18"/>
-        <v>57361</v>
+        <v>33861</v>
       </c>
       <c r="J645" s="62" t="str">
         <f t="shared" si="14"/>
@@ -49255,7 +49339,7 @@
       </c>
       <c r="H646" s="30">
         <f t="shared" si="18"/>
-        <v>41461</v>
+        <v>17961</v>
       </c>
       <c r="J646" s="62" t="str">
         <f t="shared" ref="J646:J806" si="19">IF(M646="","",M646)</f>
@@ -49283,7 +49367,7 @@
       </c>
       <c r="H647" s="30">
         <f t="shared" si="18"/>
-        <v>36561</v>
+        <v>13061</v>
       </c>
       <c r="J647" s="62" t="str">
         <f t="shared" si="19"/>
@@ -49311,7 +49395,7 @@
       </c>
       <c r="H648" s="30">
         <f t="shared" si="18"/>
-        <v>5061</v>
+        <v>-18439</v>
       </c>
       <c r="J648" s="62"/>
       <c r="K648" s="3"/>
@@ -49336,7 +49420,7 @@
       </c>
       <c r="H649" s="30">
         <f t="shared" si="18"/>
-        <v>-8939</v>
+        <v>-32439</v>
       </c>
       <c r="J649" s="62"/>
       <c r="K649" s="3"/>
@@ -49361,7 +49445,7 @@
       </c>
       <c r="H650" s="30">
         <f t="shared" ref="H650:H713" si="20">H649+F650-G650</f>
-        <v>-15939</v>
+        <v>-39439</v>
       </c>
       <c r="J650" s="62"/>
       <c r="K650" s="3"/>
@@ -49386,7 +49470,7 @@
       </c>
       <c r="H651" s="30">
         <f t="shared" si="20"/>
-        <v>-16939</v>
+        <v>-40439</v>
       </c>
       <c r="J651" s="62" t="str">
         <f t="shared" si="19"/>
@@ -49414,7 +49498,7 @@
       </c>
       <c r="H652" s="30">
         <f t="shared" si="20"/>
-        <v>-22439</v>
+        <v>-45939</v>
       </c>
       <c r="J652" s="62"/>
       <c r="K652" s="3"/>
@@ -49439,7 +49523,7 @@
       </c>
       <c r="H653" s="30">
         <f t="shared" si="20"/>
-        <v>-30329</v>
+        <v>-53829</v>
       </c>
       <c r="J653" s="62" t="str">
         <f t="shared" si="19"/>
@@ -49467,7 +49551,7 @@
       </c>
       <c r="H654" s="30">
         <f t="shared" si="20"/>
-        <v>-31329</v>
+        <v>-54829</v>
       </c>
       <c r="J654" s="62"/>
       <c r="K654" s="3"/>
@@ -49492,7 +49576,7 @@
       </c>
       <c r="H655" s="30">
         <f t="shared" si="20"/>
-        <v>-31579</v>
+        <v>-55079</v>
       </c>
       <c r="J655" s="62"/>
       <c r="K655" s="3"/>
@@ -49517,7 +49601,7 @@
       </c>
       <c r="H656" s="30">
         <f t="shared" si="20"/>
-        <v>-32079</v>
+        <v>-55579</v>
       </c>
       <c r="J656" s="62" t="str">
         <f t="shared" si="19"/>
@@ -49545,7 +49629,7 @@
       </c>
       <c r="H657" s="30">
         <f t="shared" si="20"/>
-        <v>-37979</v>
+        <v>-61479</v>
       </c>
       <c r="J657" s="62"/>
       <c r="K657" s="3"/>
@@ -49570,7 +49654,7 @@
       </c>
       <c r="H658" s="30">
         <f t="shared" si="20"/>
-        <v>-42979</v>
+        <v>-66479</v>
       </c>
       <c r="J658" s="62"/>
       <c r="K658" s="3"/>
@@ -49595,7 +49679,7 @@
       </c>
       <c r="H659" s="30">
         <f t="shared" si="20"/>
-        <v>-46879</v>
+        <v>-70379</v>
       </c>
       <c r="J659" s="62"/>
       <c r="K659" s="3"/>
@@ -49620,7 +49704,7 @@
       </c>
       <c r="H660" s="30">
         <f t="shared" si="20"/>
-        <v>-50279</v>
+        <v>-73779</v>
       </c>
       <c r="J660" s="62"/>
       <c r="K660" s="3"/>
@@ -49645,7 +49729,7 @@
       </c>
       <c r="H661" s="30">
         <f t="shared" si="20"/>
-        <v>-60279</v>
+        <v>-83779</v>
       </c>
       <c r="J661" s="62"/>
       <c r="K661" s="3"/>
@@ -49670,7 +49754,7 @@
       </c>
       <c r="H662" s="30">
         <f t="shared" si="20"/>
-        <v>-69979</v>
+        <v>-93479</v>
       </c>
       <c r="J662" s="62"/>
       <c r="K662" s="3"/>
@@ -49695,7 +49779,7 @@
       </c>
       <c r="H663" s="30">
         <f t="shared" si="20"/>
-        <v>-121479</v>
+        <v>-144979</v>
       </c>
       <c r="J663" s="62"/>
       <c r="K663" s="3"/>
@@ -49712,7 +49796,7 @@
       <c r="G664" s="56"/>
       <c r="H664" s="30">
         <f t="shared" si="20"/>
-        <v>-121479</v>
+        <v>-144979</v>
       </c>
       <c r="J664" s="62"/>
       <c r="K664" s="3"/>
@@ -49729,7 +49813,7 @@
       <c r="G665" s="56"/>
       <c r="H665" s="30">
         <f t="shared" si="20"/>
-        <v>-121479</v>
+        <v>-144979</v>
       </c>
       <c r="J665" s="62"/>
       <c r="K665" s="3"/>
@@ -49754,7 +49838,7 @@
       <c r="G666" s="56"/>
       <c r="H666" s="30">
         <f t="shared" si="20"/>
-        <v>1878521</v>
+        <v>1855021</v>
       </c>
       <c r="J666" s="62"/>
       <c r="K666" s="3"/>
@@ -49771,7 +49855,7 @@
       <c r="G667" s="56"/>
       <c r="H667" s="30">
         <f t="shared" si="20"/>
-        <v>1878521</v>
+        <v>1855021</v>
       </c>
       <c r="J667" s="62"/>
       <c r="K667" s="3"/>
@@ -49788,7 +49872,7 @@
       <c r="G668" s="56"/>
       <c r="H668" s="30">
         <f t="shared" si="20"/>
-        <v>1878521</v>
+        <v>1855021</v>
       </c>
       <c r="J668" s="62"/>
       <c r="K668" s="3"/>
@@ -49813,7 +49897,7 @@
       </c>
       <c r="H669" s="30">
         <f t="shared" si="20"/>
-        <v>1870631</v>
+        <v>1847131</v>
       </c>
       <c r="J669" s="62"/>
       <c r="K669" s="3"/>
@@ -49830,7 +49914,7 @@
       <c r="G670" s="56"/>
       <c r="H670" s="30">
         <f t="shared" si="20"/>
-        <v>1870631</v>
+        <v>1847131</v>
       </c>
       <c r="J670" s="62"/>
       <c r="K670" s="3"/>
@@ -49847,7 +49931,7 @@
       <c r="G671" s="56"/>
       <c r="H671" s="30">
         <f t="shared" si="20"/>
-        <v>1870631</v>
+        <v>1847131</v>
       </c>
       <c r="J671" s="62"/>
       <c r="K671" s="3"/>
@@ -49864,7 +49948,7 @@
       <c r="G672" s="56"/>
       <c r="H672" s="30">
         <f t="shared" si="20"/>
-        <v>1870631</v>
+        <v>1847131</v>
       </c>
       <c r="J672" s="62"/>
       <c r="K672" s="3"/>
@@ -49881,7 +49965,7 @@
       <c r="G673" s="56"/>
       <c r="H673" s="30">
         <f t="shared" si="20"/>
-        <v>1870631</v>
+        <v>1847131</v>
       </c>
       <c r="J673" s="62"/>
       <c r="K673" s="3"/>
@@ -49898,7 +49982,7 @@
       <c r="G674" s="56"/>
       <c r="H674" s="30">
         <f t="shared" si="20"/>
-        <v>1870631</v>
+        <v>1847131</v>
       </c>
       <c r="J674" s="62"/>
       <c r="K674" s="3"/>
@@ -49915,7 +49999,7 @@
       <c r="G675" s="56"/>
       <c r="H675" s="30">
         <f t="shared" si="20"/>
-        <v>1870631</v>
+        <v>1847131</v>
       </c>
       <c r="J675" s="62"/>
       <c r="K675" s="3"/>
@@ -49932,7 +50016,7 @@
       <c r="G676" s="56"/>
       <c r="H676" s="30">
         <f t="shared" si="20"/>
-        <v>1870631</v>
+        <v>1847131</v>
       </c>
       <c r="J676" s="62"/>
       <c r="K676" s="3"/>
@@ -49957,7 +50041,7 @@
       <c r="G677" s="56"/>
       <c r="H677" s="30">
         <f t="shared" si="20"/>
-        <v>2470631</v>
+        <v>2447131</v>
       </c>
       <c r="J677" s="62"/>
       <c r="K677" s="3"/>
@@ -49982,7 +50066,7 @@
       </c>
       <c r="H678" s="30">
         <f t="shared" si="20"/>
-        <v>2462831</v>
+        <v>2439331</v>
       </c>
       <c r="J678" s="62"/>
       <c r="K678" s="3"/>
@@ -50007,7 +50091,7 @@
       </c>
       <c r="H679" s="30">
         <f t="shared" si="20"/>
-        <v>2453751</v>
+        <v>2430251</v>
       </c>
       <c r="J679" s="62"/>
       <c r="K679" s="3"/>
@@ -50032,7 +50116,7 @@
       </c>
       <c r="H680" s="30">
         <f t="shared" si="20"/>
-        <v>2448251</v>
+        <v>2424751</v>
       </c>
       <c r="J680" s="62"/>
       <c r="K680" s="3"/>
@@ -50057,7 +50141,7 @@
       </c>
       <c r="H681" s="30">
         <f t="shared" si="20"/>
-        <v>1748251</v>
+        <v>1724751</v>
       </c>
       <c r="J681" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50085,7 +50169,7 @@
       </c>
       <c r="H682" s="30">
         <f t="shared" si="20"/>
-        <v>1739551</v>
+        <v>1716051</v>
       </c>
       <c r="J682" s="62"/>
       <c r="K682" s="3"/>
@@ -50110,7 +50194,7 @@
       </c>
       <c r="H683" s="30">
         <f t="shared" si="20"/>
-        <v>1728351</v>
+        <v>1704851</v>
       </c>
       <c r="J683" s="62"/>
       <c r="K683" s="3"/>
@@ -50135,7 +50219,7 @@
       </c>
       <c r="H684" s="30">
         <f t="shared" si="20"/>
-        <v>1722951</v>
+        <v>1699451</v>
       </c>
       <c r="J684" s="62"/>
       <c r="K684" s="3"/>
@@ -50160,7 +50244,7 @@
       </c>
       <c r="H685" s="30">
         <f t="shared" si="20"/>
-        <v>1683151</v>
+        <v>1659651</v>
       </c>
       <c r="J685" s="62"/>
       <c r="K685" s="3"/>
@@ -50185,7 +50269,7 @@
       </c>
       <c r="H686" s="30">
         <f t="shared" si="20"/>
-        <v>1676651</v>
+        <v>1653151</v>
       </c>
       <c r="J686" s="62"/>
       <c r="K686" s="3"/>
@@ -50210,7 +50294,7 @@
       </c>
       <c r="H687" s="30">
         <f t="shared" si="20"/>
-        <v>1656651</v>
+        <v>1633151</v>
       </c>
       <c r="J687" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50238,7 +50322,7 @@
       </c>
       <c r="H688" s="30">
         <f t="shared" si="20"/>
-        <v>1641651</v>
+        <v>1618151</v>
       </c>
       <c r="J688" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50266,7 +50350,7 @@
       </c>
       <c r="H689" s="30">
         <f t="shared" si="20"/>
-        <v>1638821</v>
+        <v>1615321</v>
       </c>
       <c r="J689" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50294,7 +50378,7 @@
       </c>
       <c r="H690" s="30">
         <f t="shared" si="20"/>
-        <v>1630931</v>
+        <v>1607431</v>
       </c>
       <c r="J690" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50322,7 +50406,7 @@
       </c>
       <c r="H691" s="30">
         <f t="shared" si="20"/>
-        <v>1630031</v>
+        <v>1606531</v>
       </c>
       <c r="J691" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50350,7 +50434,7 @@
       </c>
       <c r="H692" s="30">
         <f t="shared" si="20"/>
-        <v>1580231</v>
+        <v>1556731</v>
       </c>
       <c r="J692" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50378,7 +50462,7 @@
       </c>
       <c r="H693" s="30">
         <f t="shared" si="20"/>
-        <v>1575231</v>
+        <v>1551731</v>
       </c>
       <c r="J693" s="62"/>
       <c r="K693" s="3"/>
@@ -50403,7 +50487,7 @@
       </c>
       <c r="H694" s="30">
         <f t="shared" si="20"/>
-        <v>1574331</v>
+        <v>1550831</v>
       </c>
       <c r="J694" s="62"/>
       <c r="K694" s="3"/>
@@ -50428,7 +50512,7 @@
       </c>
       <c r="H695" s="30">
         <f t="shared" si="20"/>
-        <v>1569731</v>
+        <v>1546231</v>
       </c>
       <c r="J695" s="62"/>
       <c r="K695" s="3"/>
@@ -50453,7 +50537,7 @@
       </c>
       <c r="H696" s="30">
         <f t="shared" si="20"/>
-        <v>1551531</v>
+        <v>1528031</v>
       </c>
       <c r="J696" s="62"/>
       <c r="K696" s="3"/>
@@ -50478,7 +50562,7 @@
       <c r="G697" s="56"/>
       <c r="H697" s="30">
         <f t="shared" si="20"/>
-        <v>1563981</v>
+        <v>1540481</v>
       </c>
       <c r="J697" s="62"/>
       <c r="K697" s="3"/>
@@ -50503,7 +50587,7 @@
       </c>
       <c r="H698" s="30">
         <f t="shared" si="20"/>
-        <v>1551531</v>
+        <v>1528031</v>
       </c>
       <c r="J698" s="62"/>
       <c r="K698" s="3"/>
@@ -50528,7 +50612,7 @@
       </c>
       <c r="H699" s="30">
         <f t="shared" si="20"/>
-        <v>1505711</v>
+        <v>1482211</v>
       </c>
       <c r="J699" s="62"/>
       <c r="K699" s="3"/>
@@ -50553,7 +50637,7 @@
       </c>
       <c r="H700" s="30">
         <f t="shared" si="20"/>
-        <v>1490511</v>
+        <v>1467011</v>
       </c>
       <c r="J700" s="62"/>
       <c r="K700" s="3"/>
@@ -50578,7 +50662,7 @@
       </c>
       <c r="H701" s="30">
         <f t="shared" si="20"/>
-        <v>1482621</v>
+        <v>1459121</v>
       </c>
       <c r="J701" s="62"/>
       <c r="K701" s="3"/>
@@ -50595,7 +50679,7 @@
       <c r="G702" s="56"/>
       <c r="H702" s="30">
         <f t="shared" si="20"/>
-        <v>1482621</v>
+        <v>1459121</v>
       </c>
       <c r="J702" s="62"/>
       <c r="K702" s="3"/>
@@ -50612,7 +50696,7 @@
       <c r="G703" s="56"/>
       <c r="H703" s="30">
         <f t="shared" si="20"/>
-        <v>1482621</v>
+        <v>1459121</v>
       </c>
       <c r="J703" s="62"/>
       <c r="K703" s="3"/>
@@ -50629,7 +50713,7 @@
       <c r="G704" s="56"/>
       <c r="H704" s="30">
         <f t="shared" si="20"/>
-        <v>1482621</v>
+        <v>1459121</v>
       </c>
       <c r="J704" s="62"/>
       <c r="K704" s="3"/>
@@ -50646,7 +50730,7 @@
       <c r="G705" s="56"/>
       <c r="H705" s="30">
         <f t="shared" si="20"/>
-        <v>1482621</v>
+        <v>1459121</v>
       </c>
       <c r="J705" s="62"/>
       <c r="K705" s="3"/>
@@ -50663,7 +50747,7 @@
       <c r="G706" s="56"/>
       <c r="H706" s="30">
         <f t="shared" si="20"/>
-        <v>1482621</v>
+        <v>1459121</v>
       </c>
       <c r="J706" s="62"/>
       <c r="K706" s="3"/>
@@ -50680,7 +50764,7 @@
       <c r="G707" s="56"/>
       <c r="H707" s="30">
         <f t="shared" si="20"/>
-        <v>1482621</v>
+        <v>1459121</v>
       </c>
       <c r="J707" s="62"/>
       <c r="K707" s="3"/>
@@ -50705,7 +50789,7 @@
       </c>
       <c r="H708" s="30">
         <f t="shared" si="20"/>
-        <v>1468051</v>
+        <v>1444551</v>
       </c>
       <c r="J708" s="62"/>
       <c r="K708" s="3"/>
@@ -50722,7 +50806,7 @@
       <c r="G709" s="56"/>
       <c r="H709" s="30">
         <f t="shared" si="20"/>
-        <v>1468051</v>
+        <v>1444551</v>
       </c>
       <c r="J709" s="62"/>
       <c r="K709" s="3"/>
@@ -50739,7 +50823,7 @@
       <c r="G710" s="56"/>
       <c r="H710" s="30">
         <f t="shared" si="20"/>
-        <v>1468051</v>
+        <v>1444551</v>
       </c>
       <c r="J710" s="62"/>
       <c r="K710" s="3"/>
@@ -50756,7 +50840,7 @@
       <c r="G711" s="56"/>
       <c r="H711" s="30">
         <f t="shared" si="20"/>
-        <v>1468051</v>
+        <v>1444551</v>
       </c>
       <c r="J711" s="62"/>
       <c r="K711" s="3"/>
@@ -50773,7 +50857,7 @@
       <c r="G712" s="56"/>
       <c r="H712" s="30">
         <f t="shared" si="20"/>
-        <v>1468051</v>
+        <v>1444551</v>
       </c>
       <c r="J712" s="62"/>
       <c r="K712" s="3"/>
@@ -50790,7 +50874,7 @@
       <c r="G713" s="56"/>
       <c r="H713" s="30">
         <f t="shared" si="20"/>
-        <v>1468051</v>
+        <v>1444551</v>
       </c>
       <c r="J713" s="62"/>
       <c r="K713" s="3"/>
@@ -50807,7 +50891,7 @@
       <c r="G714" s="56"/>
       <c r="H714" s="30">
         <f t="shared" ref="H714:H777" si="21">H713+F714-G714</f>
-        <v>1468051</v>
+        <v>1444551</v>
       </c>
       <c r="J714" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50835,7 +50919,7 @@
       </c>
       <c r="H715" s="30">
         <f t="shared" si="21"/>
-        <v>768051</v>
+        <v>744551</v>
       </c>
       <c r="J715" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50863,7 +50947,7 @@
       </c>
       <c r="H716" s="30">
         <f t="shared" si="21"/>
-        <v>766051</v>
+        <v>742551</v>
       </c>
       <c r="J716" s="62" t="str">
         <f t="shared" si="19"/>
@@ -50891,7 +50975,7 @@
       </c>
       <c r="H717" s="30">
         <f t="shared" si="21"/>
-        <v>763051</v>
+        <v>739551</v>
       </c>
       <c r="J717" s="62"/>
       <c r="K717" s="3"/>
@@ -50916,7 +51000,7 @@
       </c>
       <c r="H718" s="30">
         <f t="shared" si="21"/>
-        <v>752151</v>
+        <v>728651</v>
       </c>
       <c r="J718" s="62"/>
       <c r="K718" s="3"/>
@@ -50941,7 +51025,7 @@
       </c>
       <c r="H719" s="30">
         <f t="shared" si="21"/>
-        <v>748751</v>
+        <v>725251</v>
       </c>
       <c r="J719" s="62"/>
       <c r="K719" s="3"/>
@@ -50966,7 +51050,7 @@
       </c>
       <c r="H720" s="30">
         <f t="shared" si="21"/>
-        <v>738951</v>
+        <v>715451</v>
       </c>
       <c r="J720" s="62"/>
       <c r="K720" s="3"/>
@@ -50991,7 +51075,7 @@
       </c>
       <c r="H721" s="30">
         <f t="shared" si="21"/>
-        <v>720951</v>
+        <v>697451</v>
       </c>
       <c r="J721" s="62"/>
       <c r="K721" s="3"/>
@@ -51016,7 +51100,7 @@
       </c>
       <c r="H722" s="30">
         <f t="shared" si="21"/>
-        <v>689971</v>
+        <v>666471</v>
       </c>
       <c r="J722" s="62"/>
       <c r="K722" s="3"/>
@@ -51041,7 +51125,7 @@
       </c>
       <c r="H723" s="30">
         <f t="shared" si="21"/>
-        <v>683571</v>
+        <v>660071</v>
       </c>
       <c r="J723" s="62"/>
       <c r="K723" s="3"/>
@@ -51066,7 +51150,7 @@
       </c>
       <c r="H724" s="30">
         <f t="shared" si="21"/>
-        <v>676071</v>
+        <v>652571</v>
       </c>
       <c r="J724" s="62"/>
       <c r="K724" s="3"/>
@@ -51083,7 +51167,7 @@
       <c r="G725" s="56"/>
       <c r="H725" s="30">
         <f t="shared" si="21"/>
-        <v>676071</v>
+        <v>652571</v>
       </c>
       <c r="J725" s="62"/>
       <c r="K725" s="3"/>
@@ -51100,7 +51184,7 @@
       <c r="G726" s="56"/>
       <c r="H726" s="30">
         <f t="shared" si="21"/>
-        <v>676071</v>
+        <v>652571</v>
       </c>
       <c r="J726" s="62"/>
       <c r="K726" s="3"/>
@@ -51117,7 +51201,7 @@
       <c r="G727" s="56"/>
       <c r="H727" s="30">
         <f t="shared" si="21"/>
-        <v>676071</v>
+        <v>652571</v>
       </c>
       <c r="J727" s="62"/>
       <c r="K727" s="3"/>
@@ -51134,7 +51218,7 @@
       <c r="G728" s="56"/>
       <c r="H728" s="30">
         <f t="shared" si="21"/>
-        <v>676071</v>
+        <v>652571</v>
       </c>
       <c r="J728" s="62"/>
       <c r="K728" s="3"/>
@@ -51151,7 +51235,7 @@
       <c r="G729" s="56"/>
       <c r="H729" s="30">
         <f t="shared" si="21"/>
-        <v>676071</v>
+        <v>652571</v>
       </c>
       <c r="J729" s="62"/>
       <c r="K729" s="3"/>
@@ -51176,7 +51260,7 @@
       </c>
       <c r="H730" s="30">
         <f t="shared" si="21"/>
-        <v>665071</v>
+        <v>641571</v>
       </c>
       <c r="J730" s="62"/>
       <c r="K730" s="3"/>
@@ -51201,7 +51285,7 @@
       </c>
       <c r="H731" s="30">
         <f t="shared" si="21"/>
-        <v>653271</v>
+        <v>629771</v>
       </c>
       <c r="J731" s="62"/>
       <c r="K731" s="3"/>
@@ -51218,7 +51302,7 @@
       <c r="G732" s="56"/>
       <c r="H732" s="30">
         <f t="shared" si="21"/>
-        <v>653271</v>
+        <v>629771</v>
       </c>
       <c r="J732" s="62"/>
       <c r="K732" s="3"/>
@@ -51235,7 +51319,7 @@
       <c r="G733" s="56"/>
       <c r="H733" s="30">
         <f t="shared" si="21"/>
-        <v>653271</v>
+        <v>629771</v>
       </c>
       <c r="J733" s="62"/>
       <c r="K733" s="3"/>
@@ -51252,7 +51336,7 @@
       <c r="G734" s="56"/>
       <c r="H734" s="30">
         <f t="shared" si="21"/>
-        <v>653271</v>
+        <v>629771</v>
       </c>
       <c r="J734" s="62"/>
       <c r="K734" s="3"/>
@@ -51269,7 +51353,7 @@
       <c r="G735" s="56"/>
       <c r="H735" s="30">
         <f t="shared" si="21"/>
-        <v>653271</v>
+        <v>629771</v>
       </c>
       <c r="J735" s="62"/>
       <c r="K735" s="3"/>
@@ -51294,7 +51378,7 @@
       </c>
       <c r="H736" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J736" s="62"/>
       <c r="K736" s="3"/>
@@ -51311,7 +51395,7 @@
       <c r="G737" s="56"/>
       <c r="H737" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J737" s="62"/>
       <c r="K737" s="3"/>
@@ -51328,7 +51412,7 @@
       <c r="G738" s="56"/>
       <c r="H738" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J738" s="62"/>
       <c r="K738" s="3"/>
@@ -51345,7 +51429,7 @@
       <c r="G739" s="56"/>
       <c r="H739" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J739" s="62"/>
       <c r="K739" s="3"/>
@@ -51362,7 +51446,7 @@
       <c r="G740" s="56"/>
       <c r="H740" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J740" s="62"/>
       <c r="K740" s="3"/>
@@ -51379,7 +51463,7 @@
       <c r="G741" s="56"/>
       <c r="H741" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J741" s="62"/>
       <c r="K741" s="3"/>
@@ -51396,7 +51480,7 @@
       <c r="G742" s="56"/>
       <c r="H742" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J742" s="62"/>
       <c r="K742" s="3"/>
@@ -51413,7 +51497,7 @@
       <c r="G743" s="56"/>
       <c r="H743" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J743" s="62"/>
       <c r="K743" s="3"/>
@@ -51430,7 +51514,7 @@
       <c r="G744" s="56"/>
       <c r="H744" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J744" s="62"/>
       <c r="K744" s="3"/>
@@ -51447,7 +51531,7 @@
       <c r="G745" s="56"/>
       <c r="H745" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J745" s="62"/>
       <c r="K745" s="3"/>
@@ -51464,7 +51548,7 @@
       <c r="G746" s="56"/>
       <c r="H746" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J746" s="62" t="str">
         <f t="shared" si="19"/>
@@ -51484,7 +51568,7 @@
       <c r="G747" s="56"/>
       <c r="H747" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J747" s="62" t="str">
         <f t="shared" si="19"/>
@@ -51504,7 +51588,7 @@
       <c r="G748" s="56"/>
       <c r="H748" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J748" s="62" t="str">
         <f t="shared" si="19"/>
@@ -51524,7 +51608,7 @@
       <c r="G749" s="56"/>
       <c r="H749" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J749" s="62" t="str">
         <f t="shared" si="19"/>
@@ -51544,7 +51628,7 @@
       <c r="G750" s="56"/>
       <c r="H750" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J750" s="62" t="str">
         <f t="shared" si="19"/>
@@ -51564,7 +51648,7 @@
       <c r="G751" s="56"/>
       <c r="H751" s="30">
         <f t="shared" si="21"/>
-        <v>645381</v>
+        <v>621881</v>
       </c>
       <c r="J751" s="62" t="str">
         <f t="shared" si="19"/>
@@ -51592,7 +51676,7 @@
       </c>
       <c r="H752" s="30">
         <f t="shared" si="21"/>
-        <v>-54619</v>
+        <v>-78119</v>
       </c>
       <c r="J752" s="62" t="str">
         <f t="shared" si="19"/>
@@ -51612,7 +51696,7 @@
       <c r="G753" s="43"/>
       <c r="H753" s="30">
         <f t="shared" si="21"/>
-        <v>-54619</v>
+        <v>-78119</v>
       </c>
       <c r="J753" s="62"/>
       <c r="K753" s="3"/>
@@ -51629,7 +51713,7 @@
       <c r="G754" s="43"/>
       <c r="H754" s="30">
         <f t="shared" si="21"/>
-        <v>-54619</v>
+        <v>-78119</v>
       </c>
       <c r="J754" s="62"/>
       <c r="K754" s="3"/>
@@ -51646,7 +51730,7 @@
       <c r="G755" s="43"/>
       <c r="H755" s="30">
         <f t="shared" si="21"/>
-        <v>-54619</v>
+        <v>-78119</v>
       </c>
       <c r="J755" s="62"/>
       <c r="K755" s="3"/>
@@ -51663,7 +51747,7 @@
       <c r="G756" s="43"/>
       <c r="H756" s="30">
         <f t="shared" si="21"/>
-        <v>-54619</v>
+        <v>-78119</v>
       </c>
       <c r="J756" s="62"/>
       <c r="K756" s="3"/>
@@ -51680,7 +51764,7 @@
       <c r="G757" s="43"/>
       <c r="H757" s="30">
         <f t="shared" si="21"/>
-        <v>-54619</v>
+        <v>-78119</v>
       </c>
       <c r="J757" s="62"/>
       <c r="K757" s="3"/>
@@ -51697,7 +51781,7 @@
       <c r="G758" s="56"/>
       <c r="H758" s="30">
         <f t="shared" si="21"/>
-        <v>-54619</v>
+        <v>-78119</v>
       </c>
       <c r="J758" s="62"/>
       <c r="K758" s="3"/>
@@ -51722,7 +51806,7 @@
       <c r="G759" s="56"/>
       <c r="H759" s="30">
         <f t="shared" si="21"/>
-        <v>145381</v>
+        <v>121881</v>
       </c>
       <c r="J759" s="62"/>
       <c r="K759" s="3"/>
@@ -51747,7 +51831,7 @@
       </c>
       <c r="H760" s="30">
         <f t="shared" si="21"/>
-        <v>102581</v>
+        <v>79081</v>
       </c>
       <c r="J760" s="62"/>
       <c r="K760" s="3"/>
@@ -51772,7 +51856,7 @@
       </c>
       <c r="H761" s="30">
         <f t="shared" si="21"/>
-        <v>56281</v>
+        <v>32781</v>
       </c>
       <c r="J761" s="62"/>
       <c r="K761" s="3"/>
@@ -51797,7 +51881,7 @@
       </c>
       <c r="H762" s="30">
         <f t="shared" si="21"/>
-        <v>52081</v>
+        <v>28581</v>
       </c>
       <c r="J762" s="62"/>
       <c r="K762" s="3"/>
@@ -51822,7 +51906,7 @@
       </c>
       <c r="H763" s="30">
         <f t="shared" si="21"/>
-        <v>39581</v>
+        <v>16081</v>
       </c>
       <c r="J763" s="62"/>
       <c r="K763" s="3"/>
@@ -51847,7 +51931,7 @@
       </c>
       <c r="H764" s="30">
         <f t="shared" si="21"/>
-        <v>19581</v>
+        <v>-3919</v>
       </c>
       <c r="J764" s="62"/>
       <c r="K764" s="3"/>
@@ -51872,7 +51956,7 @@
       </c>
       <c r="H765" s="30">
         <f t="shared" si="21"/>
-        <v>1681</v>
+        <v>-21819</v>
       </c>
       <c r="J765" s="62"/>
       <c r="K765" s="3"/>
@@ -51897,7 +51981,7 @@
       </c>
       <c r="H766" s="30">
         <f t="shared" si="21"/>
-        <v>-5819</v>
+        <v>-29319</v>
       </c>
       <c r="J766" s="62"/>
       <c r="K766" s="3"/>
@@ -51922,7 +52006,7 @@
       <c r="G767" s="56"/>
       <c r="H767" s="30">
         <f t="shared" si="21"/>
-        <v>94181</v>
+        <v>70681</v>
       </c>
       <c r="J767" s="62"/>
       <c r="K767" s="3"/>
@@ -51947,7 +52031,7 @@
       </c>
       <c r="H768" s="30">
         <f t="shared" si="21"/>
-        <v>85881</v>
+        <v>62381</v>
       </c>
       <c r="J768" s="62"/>
       <c r="K768" s="3"/>
@@ -51972,7 +52056,7 @@
       <c r="G769" s="56"/>
       <c r="H769" s="30">
         <f t="shared" si="21"/>
-        <v>135881</v>
+        <v>112381</v>
       </c>
       <c r="J769" s="62"/>
       <c r="K769" s="3"/>
@@ -51997,7 +52081,7 @@
       </c>
       <c r="H770" s="30">
         <f t="shared" si="21"/>
-        <v>105881</v>
+        <v>82381</v>
       </c>
       <c r="J770" s="62"/>
       <c r="K770" s="3"/>
@@ -52022,7 +52106,7 @@
       </c>
       <c r="H771" s="30">
         <f t="shared" si="21"/>
-        <v>93881</v>
+        <v>70381</v>
       </c>
       <c r="J771" s="62"/>
       <c r="K771" s="3"/>
@@ -52047,7 +52131,7 @@
       </c>
       <c r="H772" s="30">
         <f t="shared" si="21"/>
-        <v>90881</v>
+        <v>67381</v>
       </c>
       <c r="J772" s="62"/>
       <c r="K772" s="3"/>
@@ -52072,7 +52156,7 @@
       </c>
       <c r="H773" s="30">
         <f t="shared" si="21"/>
-        <v>82881</v>
+        <v>59381</v>
       </c>
       <c r="J773" s="62"/>
       <c r="K773" s="3"/>
@@ -52097,7 +52181,7 @@
       </c>
       <c r="H774" s="30">
         <f t="shared" si="21"/>
-        <v>74991</v>
+        <v>51491</v>
       </c>
       <c r="J774" s="62"/>
       <c r="K774" s="3"/>
@@ -52122,7 +52206,7 @@
       </c>
       <c r="H775" s="30">
         <f t="shared" si="21"/>
-        <v>52991</v>
+        <v>29491</v>
       </c>
       <c r="J775" s="62"/>
       <c r="K775" s="3"/>
@@ -52147,7 +52231,7 @@
       </c>
       <c r="H776" s="30">
         <f t="shared" si="21"/>
-        <v>37191</v>
+        <v>13691</v>
       </c>
       <c r="J776" s="62"/>
       <c r="K776" s="3"/>
@@ -52172,7 +52256,7 @@
       </c>
       <c r="H777" s="30">
         <f t="shared" si="21"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J777" s="62"/>
       <c r="K777" s="3"/>
@@ -52189,7 +52273,7 @@
       <c r="G778" s="56"/>
       <c r="H778" s="30">
         <f t="shared" ref="H778:H841" si="22">H777+F778-G778</f>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J778" s="62"/>
       <c r="K778" s="3"/>
@@ -52206,7 +52290,7 @@
       <c r="G779" s="56"/>
       <c r="H779" s="30">
         <f t="shared" si="22"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J779" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52226,7 +52310,7 @@
       <c r="G780" s="56"/>
       <c r="H780" s="30">
         <f t="shared" si="22"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J780" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52246,7 +52330,7 @@
       <c r="G781" s="56"/>
       <c r="H781" s="30">
         <f t="shared" si="22"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J781" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52266,7 +52350,7 @@
       <c r="G782" s="56"/>
       <c r="H782" s="30">
         <f t="shared" si="22"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J782" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52286,7 +52370,7 @@
       <c r="G783" s="56"/>
       <c r="H783" s="30">
         <f t="shared" si="22"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J783" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52306,7 +52390,7 @@
       <c r="G784" s="56"/>
       <c r="H784" s="30">
         <f t="shared" si="22"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J784" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52326,7 +52410,7 @@
       <c r="G785" s="82"/>
       <c r="H785" s="30">
         <f t="shared" si="22"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J785" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52346,7 +52430,7 @@
       <c r="G786" s="107"/>
       <c r="H786" s="30">
         <f t="shared" si="22"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J786" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52366,7 +52450,7 @@
       <c r="G787" s="85"/>
       <c r="H787" s="30">
         <f t="shared" si="22"/>
-        <v>30791</v>
+        <v>7291</v>
       </c>
       <c r="J787" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52394,7 +52478,7 @@
       </c>
       <c r="H788" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J788" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52414,7 +52498,7 @@
       <c r="G789" s="43"/>
       <c r="H789" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J789" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52434,7 +52518,7 @@
       <c r="G790" s="7"/>
       <c r="H790" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J790" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52454,7 +52538,7 @@
       <c r="G791" s="7"/>
       <c r="H791" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J791" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52474,7 +52558,7 @@
       <c r="G792" s="7"/>
       <c r="H792" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J792" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52494,7 +52578,7 @@
       <c r="G793" s="7"/>
       <c r="H793" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J793" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52514,7 +52598,7 @@
       <c r="G794" s="7"/>
       <c r="H794" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J794" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52534,7 +52618,7 @@
       <c r="G795" s="7"/>
       <c r="H795" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J795" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52554,7 +52638,7 @@
       <c r="G796" s="7"/>
       <c r="H796" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J796" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52574,7 +52658,7 @@
       <c r="G797" s="7"/>
       <c r="H797" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J797" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52594,7 +52678,7 @@
       <c r="G798" s="7"/>
       <c r="H798" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J798" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52614,7 +52698,7 @@
       <c r="G799" s="7"/>
       <c r="H799" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J799" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52634,7 +52718,7 @@
       <c r="G800" s="7"/>
       <c r="H800" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J800" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52654,7 +52738,7 @@
       <c r="G801" s="7"/>
       <c r="H801" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J801" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52674,7 +52758,7 @@
       <c r="G802" s="7"/>
       <c r="H802" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J802" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52694,7 +52778,7 @@
       <c r="G803" s="7"/>
       <c r="H803" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J803" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52714,7 +52798,7 @@
       <c r="G804" s="7"/>
       <c r="H804" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J804" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52734,7 +52818,7 @@
       <c r="G805" s="7"/>
       <c r="H805" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J805" s="62" t="str">
         <f t="shared" si="19"/>
@@ -52754,7 +52838,7 @@
       <c r="G806" s="7"/>
       <c r="H806" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J806" s="64" t="str">
         <f t="shared" si="19"/>
@@ -52774,7 +52858,7 @@
       <c r="G807" s="7"/>
       <c r="H807" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N807" s="1"/>
     </row>
@@ -52789,7 +52873,7 @@
       <c r="G808" s="7"/>
       <c r="H808" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N808" s="1"/>
     </row>
@@ -52804,7 +52888,7 @@
       <c r="G809" s="7"/>
       <c r="H809" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N809" s="1"/>
     </row>
@@ -52819,7 +52903,7 @@
       <c r="G810" s="7"/>
       <c r="H810" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N810" s="1"/>
     </row>
@@ -52834,7 +52918,7 @@
       <c r="G811" s="7"/>
       <c r="H811" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N811" s="1"/>
     </row>
@@ -52849,7 +52933,7 @@
       <c r="G812" s="7"/>
       <c r="H812" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N812" s="1"/>
     </row>
@@ -52864,7 +52948,7 @@
       <c r="G813" s="7"/>
       <c r="H813" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N813" s="1"/>
     </row>
@@ -52879,7 +52963,7 @@
       <c r="G814" s="7"/>
       <c r="H814" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N814" s="1"/>
     </row>
@@ -52894,7 +52978,7 @@
       <c r="G815" s="7"/>
       <c r="H815" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N815" s="1"/>
     </row>
@@ -52909,7 +52993,7 @@
       <c r="G816" s="7"/>
       <c r="H816" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N816" s="1"/>
     </row>
@@ -52924,7 +53008,7 @@
       <c r="G817" s="7"/>
       <c r="H817" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N817" s="1"/>
     </row>
@@ -52939,7 +53023,7 @@
       <c r="G818" s="7"/>
       <c r="H818" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N818" s="1"/>
     </row>
@@ -52954,7 +53038,7 @@
       <c r="G819" s="7"/>
       <c r="H819" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J819"/>
       <c r="K819"/>
@@ -52972,7 +53056,7 @@
       <c r="G820" s="7"/>
       <c r="H820" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J820"/>
       <c r="K820"/>
@@ -52990,7 +53074,7 @@
       <c r="G821" s="7"/>
       <c r="H821" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J821"/>
       <c r="K821"/>
@@ -53008,7 +53092,7 @@
       <c r="G822" s="7"/>
       <c r="H822" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J822"/>
       <c r="K822"/>
@@ -53026,7 +53110,7 @@
       <c r="G823" s="7"/>
       <c r="H823" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J823"/>
       <c r="K823"/>
@@ -53044,7 +53128,7 @@
       <c r="G824" s="7"/>
       <c r="H824" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J824"/>
       <c r="K824"/>
@@ -53062,7 +53146,7 @@
       <c r="G825" s="7"/>
       <c r="H825" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J825"/>
       <c r="K825"/>
@@ -53080,7 +53164,7 @@
       <c r="G826" s="7"/>
       <c r="H826" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J826"/>
       <c r="K826"/>
@@ -53098,7 +53182,7 @@
       <c r="G827" s="7"/>
       <c r="H827" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J827"/>
       <c r="K827"/>
@@ -53116,7 +53200,7 @@
       <c r="G828" s="7"/>
       <c r="H828" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J828"/>
       <c r="K828"/>
@@ -53134,7 +53218,7 @@
       <c r="G829" s="7"/>
       <c r="H829" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J829"/>
       <c r="K829"/>
@@ -53152,7 +53236,7 @@
       <c r="G830" s="7"/>
       <c r="H830" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J830"/>
       <c r="K830"/>
@@ -53170,7 +53254,7 @@
       <c r="G831" s="7"/>
       <c r="H831" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J831"/>
       <c r="K831"/>
@@ -53188,7 +53272,7 @@
       <c r="G832" s="7"/>
       <c r="H832" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J832"/>
       <c r="K832"/>
@@ -53206,7 +53290,7 @@
       <c r="G833" s="7"/>
       <c r="H833" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J833"/>
       <c r="K833"/>
@@ -53224,7 +53308,7 @@
       <c r="G834" s="7"/>
       <c r="H834" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J834"/>
       <c r="K834"/>
@@ -53242,7 +53326,7 @@
       <c r="G835" s="7"/>
       <c r="H835" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J835"/>
       <c r="K835"/>
@@ -53260,7 +53344,7 @@
       <c r="G836" s="7"/>
       <c r="H836" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="J836"/>
       <c r="K836"/>
@@ -53278,7 +53362,7 @@
       <c r="G837" s="7"/>
       <c r="H837" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N837" s="1"/>
     </row>
@@ -53293,7 +53377,7 @@
       <c r="G838" s="7"/>
       <c r="H838" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N838" s="1"/>
     </row>
@@ -53308,7 +53392,7 @@
       <c r="G839" s="7"/>
       <c r="H839" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N839" s="1"/>
     </row>
@@ -53323,7 +53407,7 @@
       <c r="G840" s="7"/>
       <c r="H840" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N840" s="1"/>
     </row>
@@ -53338,7 +53422,7 @@
       <c r="G841" s="7"/>
       <c r="H841" s="30">
         <f t="shared" si="22"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N841" s="1"/>
     </row>
@@ -53353,7 +53437,7 @@
       <c r="G842" s="7"/>
       <c r="H842" s="30">
         <f t="shared" ref="H842:H905" si="23">H841+F842-G842</f>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N842" s="1"/>
     </row>
@@ -53368,7 +53452,7 @@
       <c r="G843" s="7"/>
       <c r="H843" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N843" s="1"/>
     </row>
@@ -53383,7 +53467,7 @@
       <c r="G844" s="7"/>
       <c r="H844" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N844" s="1"/>
     </row>
@@ -53398,7 +53482,7 @@
       <c r="G845" s="7"/>
       <c r="H845" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N845" s="1"/>
     </row>
@@ -53413,7 +53497,7 @@
       <c r="G846" s="7"/>
       <c r="H846" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N846" s="1"/>
     </row>
@@ -53428,7 +53512,7 @@
       <c r="G847" s="7"/>
       <c r="H847" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N847" s="1"/>
     </row>
@@ -53443,7 +53527,7 @@
       <c r="G848" s="7"/>
       <c r="H848" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N848" s="1"/>
     </row>
@@ -53458,7 +53542,7 @@
       <c r="G849" s="7"/>
       <c r="H849" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N849" s="1"/>
     </row>
@@ -53473,7 +53557,7 @@
       <c r="G850" s="7"/>
       <c r="H850" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N850" s="1"/>
     </row>
@@ -53488,7 +53572,7 @@
       <c r="G851" s="7"/>
       <c r="H851" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N851" s="1"/>
     </row>
@@ -53503,7 +53587,7 @@
       <c r="G852" s="7"/>
       <c r="H852" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N852" s="1"/>
     </row>
@@ -53518,7 +53602,7 @@
       <c r="G853" s="7"/>
       <c r="H853" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N853" s="1"/>
     </row>
@@ -53533,7 +53617,7 @@
       <c r="G854" s="7"/>
       <c r="H854" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N854" s="1"/>
     </row>
@@ -53548,7 +53632,7 @@
       <c r="G855" s="7"/>
       <c r="H855" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N855" s="1"/>
     </row>
@@ -53563,7 +53647,7 @@
       <c r="G856" s="7"/>
       <c r="H856" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N856" s="1"/>
     </row>
@@ -53578,7 +53662,7 @@
       <c r="G857" s="7"/>
       <c r="H857" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N857" s="1"/>
     </row>
@@ -53593,7 +53677,7 @@
       <c r="G858" s="7"/>
       <c r="H858" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N858" s="1"/>
     </row>
@@ -53608,7 +53692,7 @@
       <c r="G859" s="7"/>
       <c r="H859" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N859" s="1"/>
     </row>
@@ -53623,7 +53707,7 @@
       <c r="G860" s="7"/>
       <c r="H860" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N860" s="1"/>
     </row>
@@ -53638,7 +53722,7 @@
       <c r="G861" s="7"/>
       <c r="H861" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N861" s="1"/>
     </row>
@@ -53653,7 +53737,7 @@
       <c r="G862" s="7"/>
       <c r="H862" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N862" s="1"/>
     </row>
@@ -53668,7 +53752,7 @@
       <c r="G863" s="7"/>
       <c r="H863" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N863" s="1"/>
     </row>
@@ -53683,7 +53767,7 @@
       <c r="G864" s="7"/>
       <c r="H864" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N864" s="1"/>
     </row>
@@ -53698,7 +53782,7 @@
       <c r="G865" s="7"/>
       <c r="H865" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N865" s="1"/>
     </row>
@@ -53713,7 +53797,7 @@
       <c r="G866" s="7"/>
       <c r="H866" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N866" s="1"/>
     </row>
@@ -53728,7 +53812,7 @@
       <c r="G867" s="7"/>
       <c r="H867" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N867" s="1"/>
     </row>
@@ -53743,7 +53827,7 @@
       <c r="G868" s="7"/>
       <c r="H868" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N868" s="1"/>
     </row>
@@ -53758,7 +53842,7 @@
       <c r="G869" s="7"/>
       <c r="H869" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N869" s="1"/>
     </row>
@@ -53773,7 +53857,7 @@
       <c r="G870" s="7"/>
       <c r="H870" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N870" s="1"/>
     </row>
@@ -53788,7 +53872,7 @@
       <c r="G871" s="7"/>
       <c r="H871" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N871" s="1"/>
     </row>
@@ -53803,7 +53887,7 @@
       <c r="G872" s="7"/>
       <c r="H872" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N872" s="1"/>
     </row>
@@ -53818,7 +53902,7 @@
       <c r="G873" s="7"/>
       <c r="H873" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N873" s="1"/>
     </row>
@@ -53833,7 +53917,7 @@
       <c r="G874" s="7"/>
       <c r="H874" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N874" s="1"/>
     </row>
@@ -53848,7 +53932,7 @@
       <c r="G875" s="7"/>
       <c r="H875" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N875" s="1"/>
     </row>
@@ -53863,7 +53947,7 @@
       <c r="G876" s="7"/>
       <c r="H876" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N876" s="1"/>
     </row>
@@ -53878,7 +53962,7 @@
       <c r="G877" s="7"/>
       <c r="H877" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N877" s="1"/>
     </row>
@@ -53893,7 +53977,7 @@
       <c r="G878" s="7"/>
       <c r="H878" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N878" s="1"/>
     </row>
@@ -53908,7 +53992,7 @@
       <c r="G879" s="7"/>
       <c r="H879" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N879" s="1"/>
     </row>
@@ -53923,7 +54007,7 @@
       <c r="G880" s="7"/>
       <c r="H880" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N880" s="1"/>
     </row>
@@ -53938,7 +54022,7 @@
       <c r="G881" s="7"/>
       <c r="H881" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N881" s="1"/>
     </row>
@@ -53953,7 +54037,7 @@
       <c r="G882" s="7"/>
       <c r="H882" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N882" s="1"/>
     </row>
@@ -53968,7 +54052,7 @@
       <c r="G883" s="7"/>
       <c r="H883" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N883" s="1"/>
     </row>
@@ -53983,7 +54067,7 @@
       <c r="G884" s="7"/>
       <c r="H884" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N884" s="1"/>
     </row>
@@ -53998,7 +54082,7 @@
       <c r="G885" s="7"/>
       <c r="H885" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N885" s="1"/>
     </row>
@@ -54013,7 +54097,7 @@
       <c r="G886" s="7"/>
       <c r="H886" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N886" s="1"/>
     </row>
@@ -54028,7 +54112,7 @@
       <c r="G887" s="7"/>
       <c r="H887" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N887" s="1"/>
     </row>
@@ -54043,7 +54127,7 @@
       <c r="G888" s="7"/>
       <c r="H888" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N888" s="1"/>
     </row>
@@ -54058,7 +54142,7 @@
       <c r="G889" s="7"/>
       <c r="H889" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N889" s="1"/>
     </row>
@@ -54073,7 +54157,7 @@
       <c r="G890" s="7"/>
       <c r="H890" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N890" s="1"/>
     </row>
@@ -54088,7 +54172,7 @@
       <c r="G891" s="7"/>
       <c r="H891" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N891" s="1"/>
     </row>
@@ -54103,7 +54187,7 @@
       <c r="G892" s="7"/>
       <c r="H892" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N892" s="1"/>
     </row>
@@ -54118,7 +54202,7 @@
       <c r="G893" s="7"/>
       <c r="H893" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N893" s="1"/>
     </row>
@@ -54133,7 +54217,7 @@
       <c r="G894" s="7"/>
       <c r="H894" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N894" s="1"/>
     </row>
@@ -54148,7 +54232,7 @@
       <c r="G895" s="7"/>
       <c r="H895" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N895" s="1"/>
     </row>
@@ -54163,7 +54247,7 @@
       <c r="G896" s="7"/>
       <c r="H896" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N896" s="1"/>
     </row>
@@ -54178,7 +54262,7 @@
       <c r="G897" s="7"/>
       <c r="H897" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N897" s="1"/>
     </row>
@@ -54193,7 +54277,7 @@
       <c r="G898" s="7"/>
       <c r="H898" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N898" s="1"/>
     </row>
@@ -54208,7 +54292,7 @@
       <c r="G899" s="7"/>
       <c r="H899" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N899" s="1"/>
     </row>
@@ -54223,7 +54307,7 @@
       <c r="G900" s="7"/>
       <c r="H900" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N900" s="1"/>
     </row>
@@ -54238,7 +54322,7 @@
       <c r="G901" s="7"/>
       <c r="H901" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N901" s="1"/>
     </row>
@@ -54253,7 +54337,7 @@
       <c r="G902" s="7"/>
       <c r="H902" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N902" s="1"/>
     </row>
@@ -54268,7 +54352,7 @@
       <c r="G903" s="7"/>
       <c r="H903" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N903" s="1"/>
     </row>
@@ -54283,7 +54367,7 @@
       <c r="G904" s="7"/>
       <c r="H904" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N904" s="1"/>
     </row>
@@ -54298,7 +54382,7 @@
       <c r="G905" s="7"/>
       <c r="H905" s="30">
         <f t="shared" si="23"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N905" s="1"/>
     </row>
@@ -54313,7 +54397,7 @@
       <c r="G906" s="7"/>
       <c r="H906" s="30">
         <f t="shared" ref="H906:H950" si="24">H905+F906-G906</f>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N906" s="1"/>
     </row>
@@ -54328,7 +54412,7 @@
       <c r="G907" s="7"/>
       <c r="H907" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N907" s="1"/>
     </row>
@@ -54343,7 +54427,7 @@
       <c r="G908" s="7"/>
       <c r="H908" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N908" s="1"/>
     </row>
@@ -54358,7 +54442,7 @@
       <c r="G909" s="7"/>
       <c r="H909" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N909" s="1"/>
     </row>
@@ -54373,7 +54457,7 @@
       <c r="G910" s="7"/>
       <c r="H910" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N910" s="1"/>
     </row>
@@ -54388,7 +54472,7 @@
       <c r="G911" s="7"/>
       <c r="H911" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N911" s="1"/>
     </row>
@@ -54403,7 +54487,7 @@
       <c r="G912" s="7"/>
       <c r="H912" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N912" s="1"/>
     </row>
@@ -54418,7 +54502,7 @@
       <c r="G913" s="7"/>
       <c r="H913" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N913" s="1"/>
     </row>
@@ -54433,7 +54517,7 @@
       <c r="G914" s="7"/>
       <c r="H914" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N914" s="1"/>
     </row>
@@ -54448,7 +54532,7 @@
       <c r="G915" s="7"/>
       <c r="H915" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N915" s="1"/>
     </row>
@@ -54463,7 +54547,7 @@
       <c r="G916" s="7"/>
       <c r="H916" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N916" s="1"/>
     </row>
@@ -54478,7 +54562,7 @@
       <c r="G917" s="7"/>
       <c r="H917" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N917" s="1"/>
     </row>
@@ -54493,7 +54577,7 @@
       <c r="G918" s="7"/>
       <c r="H918" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N918" s="1"/>
     </row>
@@ -54508,7 +54592,7 @@
       <c r="G919" s="7"/>
       <c r="H919" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N919" s="1"/>
     </row>
@@ -54523,7 +54607,7 @@
       <c r="G920" s="7"/>
       <c r="H920" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N920" s="1"/>
     </row>
@@ -54538,7 +54622,7 @@
       <c r="G921" s="7"/>
       <c r="H921" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N921" s="1"/>
     </row>
@@ -54553,7 +54637,7 @@
       <c r="G922" s="7"/>
       <c r="H922" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N922" s="1"/>
     </row>
@@ -54568,7 +54652,7 @@
       <c r="G923" s="7"/>
       <c r="H923" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N923" s="1"/>
     </row>
@@ -54583,7 +54667,7 @@
       <c r="G924" s="7"/>
       <c r="H924" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N924" s="1"/>
     </row>
@@ -54598,7 +54682,7 @@
       <c r="G925" s="7"/>
       <c r="H925" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N925" s="1"/>
     </row>
@@ -54613,7 +54697,7 @@
       <c r="G926" s="7"/>
       <c r="H926" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N926" s="1"/>
     </row>
@@ -54628,7 +54712,7 @@
       <c r="G927" s="7"/>
       <c r="H927" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N927" s="1"/>
     </row>
@@ -54643,7 +54727,7 @@
       <c r="G928" s="7"/>
       <c r="H928" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N928" s="1"/>
     </row>
@@ -54658,7 +54742,7 @@
       <c r="G929" s="7"/>
       <c r="H929" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N929" s="1"/>
     </row>
@@ -54673,7 +54757,7 @@
       <c r="G930" s="7"/>
       <c r="H930" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N930" s="1"/>
     </row>
@@ -54688,7 +54772,7 @@
       <c r="G931" s="7"/>
       <c r="H931" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N931" s="1"/>
     </row>
@@ -54703,7 +54787,7 @@
       <c r="G932" s="7"/>
       <c r="H932" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N932" s="1"/>
     </row>
@@ -54718,7 +54802,7 @@
       <c r="G933" s="7"/>
       <c r="H933" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N933" s="1"/>
     </row>
@@ -54733,7 +54817,7 @@
       <c r="G934" s="7"/>
       <c r="H934" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N934" s="1"/>
     </row>
@@ -54748,7 +54832,7 @@
       <c r="G935" s="7"/>
       <c r="H935" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N935" s="1"/>
     </row>
@@ -54763,7 +54847,7 @@
       <c r="G936" s="7"/>
       <c r="H936" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N936" s="1"/>
     </row>
@@ -54775,7 +54859,7 @@
       <c r="G937" s="7"/>
       <c r="H937" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N937" s="1"/>
     </row>
@@ -54787,7 +54871,7 @@
       <c r="G938" s="7"/>
       <c r="H938" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N938" s="1"/>
     </row>
@@ -54799,7 +54883,7 @@
       <c r="G939" s="7"/>
       <c r="H939" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N939" s="1"/>
     </row>
@@ -54811,7 +54895,7 @@
       <c r="G940" s="7"/>
       <c r="H940" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N940" s="1"/>
     </row>
@@ -54823,7 +54907,7 @@
       <c r="G941" s="7"/>
       <c r="H941" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N941" s="1"/>
     </row>
@@ -54835,7 +54919,7 @@
       <c r="G942" s="7"/>
       <c r="H942" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N942" s="1"/>
     </row>
@@ -54847,7 +54931,7 @@
       <c r="G943" s="7"/>
       <c r="H943" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N943" s="1"/>
     </row>
@@ -54859,7 +54943,7 @@
       <c r="G944" s="7"/>
       <c r="H944" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N944" s="1"/>
     </row>
@@ -54871,7 +54955,7 @@
       <c r="G945" s="7"/>
       <c r="H945" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N945" s="1"/>
     </row>
@@ -54883,7 +54967,7 @@
       <c r="G946" s="7"/>
       <c r="H946" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N946" s="1"/>
     </row>
@@ -54895,7 +54979,7 @@
       <c r="G947" s="7"/>
       <c r="H947" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N947" s="1"/>
     </row>
@@ -54907,7 +54991,7 @@
       <c r="G948" s="7"/>
       <c r="H948" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N948" s="1"/>
     </row>
@@ -54919,7 +55003,7 @@
       <c r="G949" s="7"/>
       <c r="H949" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N949" s="1"/>
     </row>
@@ -54931,7 +55015,7 @@
       <c r="G950" s="7"/>
       <c r="H950" s="30">
         <f t="shared" si="24"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N950" s="1"/>
     </row>
@@ -54943,7 +55027,7 @@
       <c r="G951" s="7"/>
       <c r="H951" s="30">
         <f t="shared" ref="H951:H953" si="25">H950+F951-G951</f>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N951" s="1"/>
     </row>
@@ -54955,7 +55039,7 @@
       <c r="G952" s="7"/>
       <c r="H952" s="30">
         <f t="shared" si="25"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N952" s="1"/>
     </row>
@@ -54967,7 +55051,7 @@
       <c r="G953" s="7"/>
       <c r="H953" s="30">
         <f t="shared" si="25"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N953" s="1"/>
     </row>
@@ -54979,7 +55063,7 @@
       <c r="G954" s="7"/>
       <c r="H954" s="30">
         <f t="shared" ref="H954:H1017" si="26">H953+F954-G954</f>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N954" s="1"/>
     </row>
@@ -54991,7 +55075,7 @@
       <c r="G955" s="7"/>
       <c r="H955" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N955" s="1"/>
     </row>
@@ -55003,7 +55087,7 @@
       <c r="G956" s="7"/>
       <c r="H956" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N956" s="1"/>
     </row>
@@ -55015,7 +55099,7 @@
       <c r="G957" s="7"/>
       <c r="H957" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N957" s="1"/>
     </row>
@@ -55027,7 +55111,7 @@
       <c r="G958" s="7"/>
       <c r="H958" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N958" s="1"/>
     </row>
@@ -55039,7 +55123,7 @@
       <c r="G959" s="7"/>
       <c r="H959" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N959" s="1"/>
     </row>
@@ -55051,7 +55135,7 @@
       <c r="G960" s="7"/>
       <c r="H960" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N960" s="1"/>
     </row>
@@ -55063,7 +55147,7 @@
       <c r="G961" s="7"/>
       <c r="H961" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N961" s="1"/>
     </row>
@@ -55075,7 +55159,7 @@
       <c r="G962" s="7"/>
       <c r="H962" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N962" s="1"/>
     </row>
@@ -55087,7 +55171,7 @@
       <c r="G963" s="7"/>
       <c r="H963" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N963" s="1"/>
     </row>
@@ -55099,7 +55183,7 @@
       <c r="G964" s="7"/>
       <c r="H964" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N964" s="1"/>
     </row>
@@ -55111,7 +55195,7 @@
       <c r="G965" s="7"/>
       <c r="H965" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N965" s="1"/>
     </row>
@@ -55123,7 +55207,7 @@
       <c r="G966" s="7"/>
       <c r="H966" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N966" s="1"/>
     </row>
@@ -55135,7 +55219,7 @@
       <c r="G967" s="7"/>
       <c r="H967" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N967" s="1"/>
     </row>
@@ -55147,7 +55231,7 @@
       <c r="G968" s="7"/>
       <c r="H968" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N968" s="1"/>
     </row>
@@ -55159,7 +55243,7 @@
       <c r="G969" s="7"/>
       <c r="H969" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N969" s="1"/>
     </row>
@@ -55171,7 +55255,7 @@
       <c r="G970" s="7"/>
       <c r="H970" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N970" s="1"/>
     </row>
@@ -55183,7 +55267,7 @@
       <c r="G971" s="7"/>
       <c r="H971" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N971" s="1"/>
     </row>
@@ -55195,7 +55279,7 @@
       <c r="G972" s="7"/>
       <c r="H972" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N972" s="1"/>
     </row>
@@ -55207,7 +55291,7 @@
       <c r="G973" s="7"/>
       <c r="H973" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N973" s="1"/>
     </row>
@@ -55219,7 +55303,7 @@
       <c r="G974" s="7"/>
       <c r="H974" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N974" s="1"/>
     </row>
@@ -55231,7 +55315,7 @@
       <c r="G975" s="7"/>
       <c r="H975" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N975" s="1"/>
     </row>
@@ -55243,7 +55327,7 @@
       <c r="G976" s="7"/>
       <c r="H976" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N976" s="1"/>
     </row>
@@ -55255,7 +55339,7 @@
       <c r="G977" s="7"/>
       <c r="H977" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N977" s="1"/>
     </row>
@@ -55267,7 +55351,7 @@
       <c r="G978" s="7"/>
       <c r="H978" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N978" s="1"/>
     </row>
@@ -55279,7 +55363,7 @@
       <c r="G979" s="7"/>
       <c r="H979" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N979" s="1"/>
     </row>
@@ -55291,7 +55375,7 @@
       <c r="G980" s="7"/>
       <c r="H980" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N980" s="1"/>
     </row>
@@ -55303,7 +55387,7 @@
       <c r="G981" s="7"/>
       <c r="H981" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N981" s="1"/>
     </row>
@@ -55315,7 +55399,7 @@
       <c r="G982" s="7"/>
       <c r="H982" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N982" s="1"/>
     </row>
@@ -55327,7 +55411,7 @@
       <c r="G983" s="7"/>
       <c r="H983" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N983" s="1"/>
     </row>
@@ -55339,7 +55423,7 @@
       <c r="G984" s="7"/>
       <c r="H984" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N984" s="1"/>
     </row>
@@ -55351,7 +55435,7 @@
       <c r="G985" s="7"/>
       <c r="H985" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N985" s="1"/>
     </row>
@@ -55363,7 +55447,7 @@
       <c r="G986" s="7"/>
       <c r="H986" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N986" s="1"/>
     </row>
@@ -55375,7 +55459,7 @@
       <c r="G987" s="7"/>
       <c r="H987" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N987" s="1"/>
     </row>
@@ -55387,7 +55471,7 @@
       <c r="G988" s="7"/>
       <c r="H988" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N988" s="1"/>
     </row>
@@ -55399,7 +55483,7 @@
       <c r="G989" s="7"/>
       <c r="H989" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N989" s="1"/>
     </row>
@@ -55411,7 +55495,7 @@
       <c r="G990" s="7"/>
       <c r="H990" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N990" s="1"/>
     </row>
@@ -55423,7 +55507,7 @@
       <c r="G991" s="7"/>
       <c r="H991" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N991" s="1"/>
     </row>
@@ -55435,7 +55519,7 @@
       <c r="G992" s="7"/>
       <c r="H992" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N992" s="1"/>
     </row>
@@ -55447,7 +55531,7 @@
       <c r="G993" s="7"/>
       <c r="H993" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N993" s="1"/>
     </row>
@@ -55459,7 +55543,7 @@
       <c r="G994" s="7"/>
       <c r="H994" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N994" s="1"/>
     </row>
@@ -55471,7 +55555,7 @@
       <c r="G995" s="7"/>
       <c r="H995" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N995" s="1"/>
     </row>
@@ -55483,7 +55567,7 @@
       <c r="G996" s="7"/>
       <c r="H996" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N996" s="1"/>
     </row>
@@ -55495,7 +55579,7 @@
       <c r="G997" s="7"/>
       <c r="H997" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N997" s="1"/>
     </row>
@@ -55507,7 +55591,7 @@
       <c r="G998" s="7"/>
       <c r="H998" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N998" s="1"/>
     </row>
@@ -55519,7 +55603,7 @@
       <c r="G999" s="7"/>
       <c r="H999" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N999" s="1"/>
     </row>
@@ -55531,7 +55615,7 @@
       <c r="G1000" s="7"/>
       <c r="H1000" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1000" s="1"/>
     </row>
@@ -55543,7 +55627,7 @@
       <c r="G1001" s="7"/>
       <c r="H1001" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1001" s="1"/>
     </row>
@@ -55555,7 +55639,7 @@
       <c r="G1002" s="7"/>
       <c r="H1002" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1002" s="1"/>
     </row>
@@ -55567,7 +55651,7 @@
       <c r="G1003" s="7"/>
       <c r="H1003" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1003" s="1"/>
     </row>
@@ -55579,7 +55663,7 @@
       <c r="G1004" s="7"/>
       <c r="H1004" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1004" s="1"/>
     </row>
@@ -55591,7 +55675,7 @@
       <c r="G1005" s="7"/>
       <c r="H1005" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1005" s="1"/>
     </row>
@@ -55603,7 +55687,7 @@
       <c r="G1006" s="7"/>
       <c r="H1006" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1006" s="1"/>
     </row>
@@ -55615,7 +55699,7 @@
       <c r="G1007" s="7"/>
       <c r="H1007" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1007" s="1"/>
     </row>
@@ -55627,7 +55711,7 @@
       <c r="G1008" s="7"/>
       <c r="H1008" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1008" s="1"/>
     </row>
@@ -55639,7 +55723,7 @@
       <c r="G1009" s="7"/>
       <c r="H1009" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1009" s="1"/>
     </row>
@@ -55651,7 +55735,7 @@
       <c r="G1010" s="7"/>
       <c r="H1010" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1010" s="1"/>
     </row>
@@ -55663,7 +55747,7 @@
       <c r="G1011" s="7"/>
       <c r="H1011" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1011" s="1"/>
     </row>
@@ -55675,7 +55759,7 @@
       <c r="G1012" s="7"/>
       <c r="H1012" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1012" s="1"/>
     </row>
@@ -55687,7 +55771,7 @@
       <c r="G1013" s="7"/>
       <c r="H1013" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1013" s="1"/>
     </row>
@@ -55699,7 +55783,7 @@
       <c r="G1014" s="7"/>
       <c r="H1014" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1014" s="1"/>
     </row>
@@ -55711,7 +55795,7 @@
       <c r="G1015" s="7"/>
       <c r="H1015" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1015" s="1"/>
     </row>
@@ -55723,7 +55807,7 @@
       <c r="G1016" s="7"/>
       <c r="H1016" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1016" s="1"/>
     </row>
@@ -55735,7 +55819,7 @@
       <c r="G1017" s="7"/>
       <c r="H1017" s="30">
         <f t="shared" si="26"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1017" s="1"/>
     </row>
@@ -55747,7 +55831,7 @@
       <c r="G1018" s="7"/>
       <c r="H1018" s="30">
         <f t="shared" ref="H1018:H1081" si="27">H1017+F1018-G1018</f>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1018" s="1"/>
     </row>
@@ -55759,7 +55843,7 @@
       <c r="G1019" s="7"/>
       <c r="H1019" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1019" s="1"/>
     </row>
@@ -55771,7 +55855,7 @@
       <c r="G1020" s="7"/>
       <c r="H1020" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1020" s="1"/>
     </row>
@@ -55783,7 +55867,7 @@
       <c r="G1021" s="7"/>
       <c r="H1021" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1021" s="1"/>
     </row>
@@ -55795,7 +55879,7 @@
       <c r="G1022" s="7"/>
       <c r="H1022" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1022" s="1"/>
     </row>
@@ -55807,7 +55891,7 @@
       <c r="G1023" s="7"/>
       <c r="H1023" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1023" s="1"/>
     </row>
@@ -55819,7 +55903,7 @@
       <c r="G1024" s="7"/>
       <c r="H1024" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1024" s="1"/>
     </row>
@@ -55831,7 +55915,7 @@
       <c r="G1025" s="7"/>
       <c r="H1025" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1025" s="1"/>
     </row>
@@ -55843,7 +55927,7 @@
       <c r="G1026" s="7"/>
       <c r="H1026" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1026" s="1"/>
     </row>
@@ -55855,7 +55939,7 @@
       <c r="G1027" s="7"/>
       <c r="H1027" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1027" s="1"/>
     </row>
@@ -55867,7 +55951,7 @@
       <c r="G1028" s="7"/>
       <c r="H1028" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1028" s="1"/>
     </row>
@@ -55879,7 +55963,7 @@
       <c r="G1029" s="7"/>
       <c r="H1029" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1029" s="1"/>
     </row>
@@ -55891,7 +55975,7 @@
       <c r="G1030" s="7"/>
       <c r="H1030" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1030" s="1"/>
     </row>
@@ -55903,7 +55987,7 @@
       <c r="G1031" s="7"/>
       <c r="H1031" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1031" s="1"/>
     </row>
@@ -55915,7 +55999,7 @@
       <c r="G1032" s="7"/>
       <c r="H1032" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1032" s="1"/>
     </row>
@@ -55927,7 +56011,7 @@
       <c r="G1033" s="7"/>
       <c r="H1033" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1033" s="1"/>
     </row>
@@ -55939,7 +56023,7 @@
       <c r="G1034" s="7"/>
       <c r="H1034" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1034" s="1"/>
     </row>
@@ -55951,7 +56035,7 @@
       <c r="G1035" s="7"/>
       <c r="H1035" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1035" s="1"/>
     </row>
@@ -55963,7 +56047,7 @@
       <c r="G1036" s="7"/>
       <c r="H1036" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1036" s="1"/>
     </row>
@@ -55975,7 +56059,7 @@
       <c r="G1037" s="7"/>
       <c r="H1037" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1037" s="1"/>
     </row>
@@ -55987,7 +56071,7 @@
       <c r="G1038" s="7"/>
       <c r="H1038" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1038" s="1"/>
     </row>
@@ -55999,7 +56083,7 @@
       <c r="G1039" s="7"/>
       <c r="H1039" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1039" s="1"/>
     </row>
@@ -56011,7 +56095,7 @@
       <c r="G1040" s="7"/>
       <c r="H1040" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1040" s="1"/>
     </row>
@@ -56023,7 +56107,7 @@
       <c r="G1041" s="7"/>
       <c r="H1041" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1041" s="1"/>
     </row>
@@ -56035,7 +56119,7 @@
       <c r="G1042" s="7"/>
       <c r="H1042" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1042" s="1"/>
     </row>
@@ -56047,7 +56131,7 @@
       <c r="G1043" s="7"/>
       <c r="H1043" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1043" s="1"/>
     </row>
@@ -56059,7 +56143,7 @@
       <c r="G1044" s="7"/>
       <c r="H1044" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1044" s="1"/>
     </row>
@@ -56071,7 +56155,7 @@
       <c r="G1045" s="7"/>
       <c r="H1045" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1045" s="1"/>
     </row>
@@ -56083,7 +56167,7 @@
       <c r="G1046" s="7"/>
       <c r="H1046" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1046" s="1"/>
     </row>
@@ -56095,7 +56179,7 @@
       <c r="G1047" s="7"/>
       <c r="H1047" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1047" s="1"/>
     </row>
@@ -56107,7 +56191,7 @@
       <c r="G1048" s="7"/>
       <c r="H1048" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1048" s="1"/>
     </row>
@@ -56119,7 +56203,7 @@
       <c r="G1049" s="7"/>
       <c r="H1049" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1049" s="1"/>
     </row>
@@ -56131,7 +56215,7 @@
       <c r="G1050" s="7"/>
       <c r="H1050" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1050" s="1"/>
     </row>
@@ -56143,7 +56227,7 @@
       <c r="G1051" s="7"/>
       <c r="H1051" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1051" s="1"/>
     </row>
@@ -56155,7 +56239,7 @@
       <c r="G1052" s="7"/>
       <c r="H1052" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1052" s="1"/>
     </row>
@@ -56167,7 +56251,7 @@
       <c r="G1053" s="7"/>
       <c r="H1053" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1053" s="1"/>
     </row>
@@ -56179,7 +56263,7 @@
       <c r="G1054" s="7"/>
       <c r="H1054" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1054" s="1"/>
     </row>
@@ -56191,7 +56275,7 @@
       <c r="G1055" s="7"/>
       <c r="H1055" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1055" s="1"/>
     </row>
@@ -56203,7 +56287,7 @@
       <c r="G1056" s="7"/>
       <c r="H1056" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1056" s="1"/>
     </row>
@@ -56215,7 +56299,7 @@
       <c r="G1057" s="7"/>
       <c r="H1057" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1057" s="1"/>
     </row>
@@ -56227,7 +56311,7 @@
       <c r="G1058" s="7"/>
       <c r="H1058" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1058" s="1"/>
     </row>
@@ -56239,7 +56323,7 @@
       <c r="G1059" s="7"/>
       <c r="H1059" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1059" s="1"/>
     </row>
@@ -56251,7 +56335,7 @@
       <c r="G1060" s="7"/>
       <c r="H1060" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1060" s="1"/>
     </row>
@@ -56263,7 +56347,7 @@
       <c r="G1061" s="7"/>
       <c r="H1061" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1061" s="1"/>
     </row>
@@ -56275,7 +56359,7 @@
       <c r="G1062" s="7"/>
       <c r="H1062" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1062" s="1"/>
     </row>
@@ -56287,7 +56371,7 @@
       <c r="G1063" s="7"/>
       <c r="H1063" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1063" s="1"/>
     </row>
@@ -56299,7 +56383,7 @@
       <c r="G1064" s="7"/>
       <c r="H1064" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1064" s="1"/>
     </row>
@@ -56311,7 +56395,7 @@
       <c r="G1065" s="7"/>
       <c r="H1065" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1065" s="1"/>
     </row>
@@ -56323,7 +56407,7 @@
       <c r="G1066" s="7"/>
       <c r="H1066" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1066" s="1"/>
     </row>
@@ -56335,7 +56419,7 @@
       <c r="G1067" s="7"/>
       <c r="H1067" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1067" s="1"/>
     </row>
@@ -56347,7 +56431,7 @@
       <c r="G1068" s="7"/>
       <c r="H1068" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1068" s="1"/>
     </row>
@@ -56359,7 +56443,7 @@
       <c r="G1069" s="7"/>
       <c r="H1069" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1069" s="1"/>
     </row>
@@ -56371,7 +56455,7 @@
       <c r="G1070" s="7"/>
       <c r="H1070" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1070" s="1"/>
     </row>
@@ -56383,7 +56467,7 @@
       <c r="G1071" s="7"/>
       <c r="H1071" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1071" s="1"/>
     </row>
@@ -56395,7 +56479,7 @@
       <c r="G1072" s="7"/>
       <c r="H1072" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1072" s="1"/>
     </row>
@@ -56407,7 +56491,7 @@
       <c r="G1073" s="7"/>
       <c r="H1073" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1073" s="1"/>
     </row>
@@ -56419,7 +56503,7 @@
       <c r="G1074" s="7"/>
       <c r="H1074" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1074" s="1"/>
     </row>
@@ -56431,7 +56515,7 @@
       <c r="G1075" s="7"/>
       <c r="H1075" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1075" s="1"/>
     </row>
@@ -56443,7 +56527,7 @@
       <c r="G1076" s="7"/>
       <c r="H1076" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1076" s="1"/>
     </row>
@@ -56455,7 +56539,7 @@
       <c r="G1077" s="7"/>
       <c r="H1077" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1077" s="1"/>
     </row>
@@ -56467,7 +56551,7 @@
       <c r="G1078" s="7"/>
       <c r="H1078" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1078" s="1"/>
     </row>
@@ -56479,7 +56563,7 @@
       <c r="G1079" s="7"/>
       <c r="H1079" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1079" s="1"/>
     </row>
@@ -56491,7 +56575,7 @@
       <c r="G1080" s="7"/>
       <c r="H1080" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1080" s="1"/>
     </row>
@@ -56503,7 +56587,7 @@
       <c r="G1081" s="7"/>
       <c r="H1081" s="30">
         <f t="shared" si="27"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1081" s="1"/>
     </row>
@@ -56515,7 +56599,7 @@
       <c r="G1082" s="7"/>
       <c r="H1082" s="30">
         <f t="shared" ref="H1082:H1145" si="28">H1081+F1082-G1082</f>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1082" s="1"/>
     </row>
@@ -56527,7 +56611,7 @@
       <c r="G1083" s="7"/>
       <c r="H1083" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1083" s="1"/>
     </row>
@@ -56539,7 +56623,7 @@
       <c r="G1084" s="7"/>
       <c r="H1084" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1084" s="1"/>
     </row>
@@ -56551,7 +56635,7 @@
       <c r="G1085" s="7"/>
       <c r="H1085" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1085" s="1"/>
     </row>
@@ -56563,7 +56647,7 @@
       <c r="G1086" s="7"/>
       <c r="H1086" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1086" s="1"/>
     </row>
@@ -56575,7 +56659,7 @@
       <c r="G1087" s="7"/>
       <c r="H1087" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1087" s="1"/>
     </row>
@@ -56587,7 +56671,7 @@
       <c r="G1088" s="7"/>
       <c r="H1088" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1088" s="1"/>
     </row>
@@ -56599,7 +56683,7 @@
       <c r="G1089" s="7"/>
       <c r="H1089" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1089" s="1"/>
     </row>
@@ -56611,7 +56695,7 @@
       <c r="G1090" s="7"/>
       <c r="H1090" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1090" s="1"/>
     </row>
@@ -56623,7 +56707,7 @@
       <c r="G1091" s="7"/>
       <c r="H1091" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1091" s="1"/>
     </row>
@@ -56635,7 +56719,7 @@
       <c r="G1092" s="7"/>
       <c r="H1092" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1092" s="1"/>
     </row>
@@ -56647,7 +56731,7 @@
       <c r="G1093" s="7"/>
       <c r="H1093" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1093" s="1"/>
     </row>
@@ -56659,7 +56743,7 @@
       <c r="G1094" s="7"/>
       <c r="H1094" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1094" s="1"/>
     </row>
@@ -56671,7 +56755,7 @@
       <c r="G1095" s="7"/>
       <c r="H1095" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1095" s="1"/>
     </row>
@@ -56683,7 +56767,7 @@
       <c r="G1096" s="7"/>
       <c r="H1096" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1096" s="1"/>
     </row>
@@ -56695,7 +56779,7 @@
       <c r="G1097" s="7"/>
       <c r="H1097" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1097" s="1"/>
     </row>
@@ -56707,7 +56791,7 @@
       <c r="G1098" s="7"/>
       <c r="H1098" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1098" s="1"/>
     </row>
@@ -56719,7 +56803,7 @@
       <c r="G1099" s="7"/>
       <c r="H1099" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1099" s="1"/>
     </row>
@@ -56731,7 +56815,7 @@
       <c r="G1100" s="7"/>
       <c r="H1100" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1100" s="1"/>
     </row>
@@ -56743,7 +56827,7 @@
       <c r="G1101" s="7"/>
       <c r="H1101" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1101" s="1"/>
     </row>
@@ -56755,7 +56839,7 @@
       <c r="G1102" s="7"/>
       <c r="H1102" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1102" s="1"/>
     </row>
@@ -56767,7 +56851,7 @@
       <c r="G1103" s="7"/>
       <c r="H1103" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1103" s="1"/>
     </row>
@@ -56779,7 +56863,7 @@
       <c r="G1104" s="7"/>
       <c r="H1104" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1104" s="1"/>
     </row>
@@ -56791,7 +56875,7 @@
       <c r="G1105" s="7"/>
       <c r="H1105" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1105" s="1"/>
     </row>
@@ -56803,7 +56887,7 @@
       <c r="G1106" s="7"/>
       <c r="H1106" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1106" s="1"/>
     </row>
@@ -56815,7 +56899,7 @@
       <c r="G1107" s="7"/>
       <c r="H1107" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1107" s="1"/>
     </row>
@@ -56827,7 +56911,7 @@
       <c r="G1108" s="7"/>
       <c r="H1108" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1108" s="1"/>
     </row>
@@ -56839,7 +56923,7 @@
       <c r="G1109" s="7"/>
       <c r="H1109" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1109" s="1"/>
     </row>
@@ -56851,7 +56935,7 @@
       <c r="G1110" s="7"/>
       <c r="H1110" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1110" s="1"/>
     </row>
@@ -56863,7 +56947,7 @@
       <c r="G1111" s="7"/>
       <c r="H1111" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1111" s="1"/>
     </row>
@@ -56875,7 +56959,7 @@
       <c r="G1112" s="7"/>
       <c r="H1112" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1112" s="1"/>
     </row>
@@ -56887,7 +56971,7 @@
       <c r="G1113" s="7"/>
       <c r="H1113" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1113" s="1"/>
     </row>
@@ -56899,7 +56983,7 @@
       <c r="G1114" s="7"/>
       <c r="H1114" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1114" s="1"/>
     </row>
@@ -56911,7 +56995,7 @@
       <c r="G1115" s="7"/>
       <c r="H1115" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1115" s="1"/>
     </row>
@@ -56923,7 +57007,7 @@
       <c r="G1116" s="7"/>
       <c r="H1116" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1116" s="1"/>
     </row>
@@ -56935,7 +57019,7 @@
       <c r="G1117" s="7"/>
       <c r="H1117" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1117" s="1"/>
     </row>
@@ -56947,7 +57031,7 @@
       <c r="G1118" s="7"/>
       <c r="H1118" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1118" s="1"/>
     </row>
@@ -56959,7 +57043,7 @@
       <c r="G1119" s="7"/>
       <c r="H1119" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1119" s="1"/>
     </row>
@@ -56971,7 +57055,7 @@
       <c r="G1120" s="7"/>
       <c r="H1120" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1120" s="1"/>
     </row>
@@ -56983,7 +57067,7 @@
       <c r="G1121" s="7"/>
       <c r="H1121" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1121" s="1"/>
     </row>
@@ -56995,7 +57079,7 @@
       <c r="G1122" s="7"/>
       <c r="H1122" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1122" s="1"/>
     </row>
@@ -57007,7 +57091,7 @@
       <c r="G1123" s="7"/>
       <c r="H1123" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1123" s="1"/>
     </row>
@@ -57019,7 +57103,7 @@
       <c r="G1124" s="7"/>
       <c r="H1124" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1124" s="1"/>
     </row>
@@ -57031,7 +57115,7 @@
       <c r="G1125" s="7"/>
       <c r="H1125" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1125" s="1"/>
     </row>
@@ -57043,7 +57127,7 @@
       <c r="G1126" s="7"/>
       <c r="H1126" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1126" s="1"/>
     </row>
@@ -57055,7 +57139,7 @@
       <c r="G1127" s="7"/>
       <c r="H1127" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1127" s="1"/>
     </row>
@@ -57067,7 +57151,7 @@
       <c r="G1128" s="7"/>
       <c r="H1128" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1128" s="1"/>
     </row>
@@ -57079,7 +57163,7 @@
       <c r="G1129" s="7"/>
       <c r="H1129" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1129" s="1"/>
     </row>
@@ -57091,7 +57175,7 @@
       <c r="G1130" s="7"/>
       <c r="H1130" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1130" s="1"/>
     </row>
@@ -57103,7 +57187,7 @@
       <c r="G1131" s="7"/>
       <c r="H1131" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1131" s="1"/>
     </row>
@@ -57115,7 +57199,7 @@
       <c r="G1132" s="7"/>
       <c r="H1132" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1132" s="1"/>
     </row>
@@ -57127,7 +57211,7 @@
       <c r="G1133" s="7"/>
       <c r="H1133" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1133" s="1"/>
     </row>
@@ -57139,7 +57223,7 @@
       <c r="G1134" s="7"/>
       <c r="H1134" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1134" s="1"/>
     </row>
@@ -57151,7 +57235,7 @@
       <c r="G1135" s="7"/>
       <c r="H1135" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1135" s="1"/>
     </row>
@@ -57163,7 +57247,7 @@
       <c r="G1136" s="7"/>
       <c r="H1136" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1136" s="1"/>
     </row>
@@ -57175,7 +57259,7 @@
       <c r="G1137" s="7"/>
       <c r="H1137" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1137" s="1"/>
     </row>
@@ -57187,7 +57271,7 @@
       <c r="G1138" s="7"/>
       <c r="H1138" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1138" s="1"/>
     </row>
@@ -57199,7 +57283,7 @@
       <c r="G1139" s="7"/>
       <c r="H1139" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1139" s="1"/>
     </row>
@@ -57211,7 +57295,7 @@
       <c r="G1140" s="7"/>
       <c r="H1140" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1140" s="1"/>
     </row>
@@ -57223,7 +57307,7 @@
       <c r="G1141" s="7"/>
       <c r="H1141" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1141" s="1"/>
     </row>
@@ -57235,7 +57319,7 @@
       <c r="G1142" s="7"/>
       <c r="H1142" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1142" s="1"/>
     </row>
@@ -57247,7 +57331,7 @@
       <c r="G1143" s="7"/>
       <c r="H1143" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1143" s="1"/>
     </row>
@@ -57259,7 +57343,7 @@
       <c r="G1144" s="7"/>
       <c r="H1144" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1144" s="1"/>
     </row>
@@ -57271,7 +57355,7 @@
       <c r="G1145" s="7"/>
       <c r="H1145" s="30">
         <f t="shared" si="28"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1145" s="1"/>
     </row>
@@ -57283,7 +57367,7 @@
       <c r="G1146" s="7"/>
       <c r="H1146" s="30">
         <f t="shared" ref="H1146:H1166" si="29">H1145+F1146-G1146</f>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1146" s="1"/>
     </row>
@@ -57295,7 +57379,7 @@
       <c r="G1147" s="7"/>
       <c r="H1147" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1147" s="1"/>
     </row>
@@ -57307,7 +57391,7 @@
       <c r="G1148" s="7"/>
       <c r="H1148" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1148" s="1"/>
     </row>
@@ -57319,7 +57403,7 @@
       <c r="G1149" s="7"/>
       <c r="H1149" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1149" s="1"/>
     </row>
@@ -57331,7 +57415,7 @@
       <c r="G1150" s="7"/>
       <c r="H1150" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1150" s="1"/>
     </row>
@@ -57343,7 +57427,7 @@
       <c r="G1151" s="7"/>
       <c r="H1151" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1151" s="1"/>
     </row>
@@ -57355,7 +57439,7 @@
       <c r="G1152" s="7"/>
       <c r="H1152" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1152" s="1"/>
     </row>
@@ -57367,7 +57451,7 @@
       <c r="G1153" s="7"/>
       <c r="H1153" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1153" s="1"/>
     </row>
@@ -57379,7 +57463,7 @@
       <c r="G1154" s="7"/>
       <c r="H1154" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1154" s="1"/>
     </row>
@@ -57391,7 +57475,7 @@
       <c r="G1155" s="7"/>
       <c r="H1155" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1155" s="1"/>
     </row>
@@ -57403,7 +57487,7 @@
       <c r="G1156" s="7"/>
       <c r="H1156" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1156" s="1"/>
     </row>
@@ -57415,7 +57499,7 @@
       <c r="G1157" s="7"/>
       <c r="H1157" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1157" s="1"/>
     </row>
@@ -57427,7 +57511,7 @@
       <c r="G1158" s="7"/>
       <c r="H1158" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1158" s="1"/>
     </row>
@@ -57439,7 +57523,7 @@
       <c r="G1159" s="7"/>
       <c r="H1159" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1159" s="1"/>
     </row>
@@ -57451,7 +57535,7 @@
       <c r="G1160" s="7"/>
       <c r="H1160" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1160" s="1"/>
     </row>
@@ -57463,7 +57547,7 @@
       <c r="G1161" s="7"/>
       <c r="H1161" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
       <c r="N1161" s="1"/>
     </row>
@@ -57475,7 +57559,7 @@
       <c r="G1162" s="7"/>
       <c r="H1162" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
     </row>
     <row r="1163" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
@@ -57486,7 +57570,7 @@
       <c r="G1163" s="7"/>
       <c r="H1163" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
     </row>
     <row r="1164" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
@@ -57497,7 +57581,7 @@
       <c r="G1164" s="7"/>
       <c r="H1164" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
     </row>
     <row r="1165" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
@@ -57508,7 +57592,7 @@
       <c r="G1165" s="7"/>
       <c r="H1165" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
     </row>
     <row r="1166" spans="3:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -57519,7 +57603,7 @@
       <c r="G1166" s="9"/>
       <c r="H1166" s="30">
         <f t="shared" si="29"/>
-        <v>-669209</v>
+        <v>-692709</v>
       </c>
     </row>
   </sheetData>
